--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -26,133 +26,133 @@
     <t>IOMP-CT</t>
   </si>
   <si>
+    <t>Arnel</t>
+  </si>
+  <si>
+    <t>Junsat</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Meryll</t>
+  </si>
+  <si>
+    <t>Cath</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>TinB</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Kennex</t>
+  </si>
+  <si>
+    <t>Biboy</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Marj</t>
+  </si>
+  <si>
+    <t>Zhey</t>
+  </si>
+  <si>
     <t>Prado</t>
   </si>
   <si>
-    <t>Ivy</t>
+    <t>Mart</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Roy</t>
   </si>
   <si>
     <t>Nathan</t>
   </si>
   <si>
-    <t>Meryll</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>TinB</t>
-  </si>
-  <si>
-    <t>Cath</t>
-  </si>
-  <si>
-    <t>Rodney</t>
+    <t>Anj</t>
   </si>
   <si>
     <t>Reyn</t>
   </si>
   <si>
-    <t>Arnel</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Mart</t>
-  </si>
-  <si>
-    <t>Brain</t>
-  </si>
-  <si>
-    <t>Junsat</t>
-  </si>
-  <si>
-    <t>Anj</t>
-  </si>
-  <si>
-    <t>Zhey</t>
-  </si>
-  <si>
-    <t>Marj</t>
-  </si>
-  <si>
-    <t>Carlo</t>
+    <t>Jec</t>
   </si>
   <si>
     <t>Morgan</t>
   </si>
   <si>
-    <t>Biboy</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Jec</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Kennex</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Earl</t>
-  </si>
-  <si>
-    <t>Sky</t>
+    <t>Edch</t>
+  </si>
+  <si>
+    <t>Lem</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Ardeth</t>
   </si>
   <si>
     <t>Momay</t>
   </si>
   <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
     <t>TinC</t>
   </si>
   <si>
     <t>Claud</t>
   </si>
   <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Daisy</t>
-  </si>
-  <si>
-    <t>Ardeth</t>
-  </si>
-  <si>
     <t>Pati</t>
   </si>
   <si>
-    <t>Harry</t>
-  </si>
-  <si>
     <t>Mikee</t>
   </si>
   <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Edch</t>
-  </si>
-  <si>
     <t>Eunice</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Lem</t>
   </si>
   <si>
     <t>Tinb</t>
@@ -548,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -614,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -658,7 +658,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -669,7 +669,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -680,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -691,7 +691,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -702,7 +702,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -713,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -724,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -735,7 +735,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -746,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -757,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -768,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -790,7 +790,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -801,7 +801,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -812,7 +812,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -823,7 +823,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -834,7 +834,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -845,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -856,7 +856,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -864,10 +864,10 @@
         <v>42809.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -875,7 +875,7 @@
         <v>42810.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -886,7 +886,7 @@
         <v>42810.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -897,10 +897,10 @@
         <v>42811.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -908,10 +908,10 @@
         <v>42811.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -919,10 +919,10 @@
         <v>42812.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -930,10 +930,10 @@
         <v>42812.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -941,10 +941,10 @@
         <v>42813.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -952,10 +952,10 @@
         <v>42813.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -963,10 +963,10 @@
         <v>42814.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -974,10 +974,10 @@
         <v>42814.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -985,10 +985,10 @@
         <v>42815.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -996,10 +996,10 @@
         <v>42815.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>42816.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>42817.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>42817.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1051,10 +1051,10 @@
         <v>42818.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1062,10 +1062,10 @@
         <v>42818.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1073,10 +1073,10 @@
         <v>42819.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1084,10 +1084,10 @@
         <v>42819.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1106,10 +1106,10 @@
         <v>42820.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1117,10 +1117,10 @@
         <v>42821.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>42821.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>33</v>
@@ -1139,10 +1139,10 @@
         <v>42822.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1150,10 +1150,10 @@
         <v>42822.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1161,10 +1161,10 @@
         <v>42823.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1172,10 +1172,10 @@
         <v>42823.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1183,10 +1183,10 @@
         <v>42824.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1194,10 +1194,10 @@
         <v>42824.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1205,10 +1205,10 @@
         <v>42825.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1216,10 +1216,10 @@
         <v>42825.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1254,10 +1254,10 @@
         <v>42767.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>42767.8125</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>42768.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>42768.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>42769.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>42769.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>42770.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>42770.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>42771.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>42771.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>42772.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>42772.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>42773.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>42774.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>42774.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>42775.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>42775.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>42776.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>42777.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>42777.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>42778.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1507,7 +1507,7 @@
         <v>42778.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1518,10 +1518,10 @@
         <v>42779.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>42779.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>42780.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>42780.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>42781.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>42781.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>42782.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>42782.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>42783.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>42783.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>42784.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>42785.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>42785.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>42786.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>42786.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>42787.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>42787.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>42788.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>42788.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>42789.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>42789.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>42790.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>42790.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>42791.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>42791.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>42792.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1815,7 +1815,7 @@
         <v>42792.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -1826,10 +1826,10 @@
         <v>42793.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>42793.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1848,7 +1848,7 @@
         <v>42794.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>47</v>
@@ -1859,10 +1859,10 @@
         <v>42794.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Mar2017" sheetId="1" r:id="rId1"/>
     <sheet name="Feb2017" sheetId="2" r:id="rId2"/>
+    <sheet name="Apr2017" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="49">
   <si>
     <t>ts</t>
   </si>
@@ -26,136 +27,139 @@
     <t>IOMP-CT</t>
   </si>
   <si>
+    <t>Marj</t>
+  </si>
+  <si>
+    <t>Anj</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Meryll</t>
+  </si>
+  <si>
+    <t>Prado</t>
+  </si>
+  <si>
+    <t>Zhey</t>
+  </si>
+  <si>
+    <t>Cath</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Biboy</t>
+  </si>
+  <si>
+    <t>Junril</t>
+  </si>
+  <si>
+    <t>Reyn</t>
+  </si>
+  <si>
+    <t>TinB</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Junsat</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
     <t>Arnel</t>
   </si>
   <si>
-    <t>Junsat</t>
-  </si>
-  <si>
-    <t>Carlo</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Meryll</t>
-  </si>
-  <si>
-    <t>Cath</t>
-  </si>
-  <si>
-    <t>Brain</t>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Jec</t>
+  </si>
+  <si>
+    <t>Kennex</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Edch</t>
+  </si>
+  <si>
+    <t>Lem</t>
+  </si>
+  <si>
+    <t>Claud</t>
+  </si>
+  <si>
+    <t>Mikee</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Momay</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>TinC</t>
+  </si>
+  <si>
+    <t>Eunice</t>
+  </si>
+  <si>
+    <t>Pati</t>
+  </si>
+  <si>
+    <t>Mart</t>
+  </si>
+  <si>
+    <t>Ardeth</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Tinb</t>
   </si>
   <si>
     <t>Jun</t>
-  </si>
-  <si>
-    <t>TinB</t>
-  </si>
-  <si>
-    <t>Rodney</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Ivy</t>
-  </si>
-  <si>
-    <t>Earl</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Kennex</t>
-  </si>
-  <si>
-    <t>Biboy</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Marj</t>
-  </si>
-  <si>
-    <t>Zhey</t>
-  </si>
-  <si>
-    <t>Prado</t>
-  </si>
-  <si>
-    <t>Mart</t>
-  </si>
-  <si>
-    <t>Sky</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Anj</t>
-  </si>
-  <si>
-    <t>Reyn</t>
-  </si>
-  <si>
-    <t>Jec</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Edch</t>
-  </si>
-  <si>
-    <t>Lem</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Ardeth</t>
-  </si>
-  <si>
-    <t>Momay</t>
-  </si>
-  <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Daisy</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>TinC</t>
-  </si>
-  <si>
-    <t>Claud</t>
-  </si>
-  <si>
-    <t>Pati</t>
-  </si>
-  <si>
-    <t>Mikee</t>
-  </si>
-  <si>
-    <t>Eunice</t>
-  </si>
-  <si>
-    <t>Tinb</t>
   </si>
   <si>
     <t>Tinc</t>
@@ -548,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -559,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -570,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -581,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -603,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -614,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -625,7 +629,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -636,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -647,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -658,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -669,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -680,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -691,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -702,7 +706,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -713,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -724,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -735,7 +739,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -746,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -757,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -768,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -779,7 +783,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -790,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -801,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -812,7 +816,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -823,7 +827,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -834,7 +838,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -845,7 +849,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -853,10 +857,10 @@
         <v>42809.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -864,10 +868,10 @@
         <v>42809.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -875,10 +879,10 @@
         <v>42810.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -886,10 +890,10 @@
         <v>42810.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -897,10 +901,10 @@
         <v>42811.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -908,10 +912,10 @@
         <v>42811.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -919,10 +923,10 @@
         <v>42812.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -930,10 +934,10 @@
         <v>42812.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -941,10 +945,10 @@
         <v>42813.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -952,10 +956,10 @@
         <v>42813.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -963,10 +967,10 @@
         <v>42814.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -974,10 +978,10 @@
         <v>42814.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -985,10 +989,10 @@
         <v>42815.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -996,10 +1000,10 @@
         <v>42815.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1007,10 +1011,10 @@
         <v>42816.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1018,10 +1022,10 @@
         <v>42816.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1029,10 +1033,10 @@
         <v>42817.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1040,10 +1044,10 @@
         <v>42817.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1051,10 +1055,10 @@
         <v>42818.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1062,10 +1066,10 @@
         <v>42818.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1073,7 +1077,7 @@
         <v>42819.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
@@ -1084,10 +1088,10 @@
         <v>42819.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1095,10 +1099,10 @@
         <v>42820.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1106,10 +1110,10 @@
         <v>42820.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1117,10 +1121,10 @@
         <v>42821.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1128,10 +1132,10 @@
         <v>42821.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1139,10 +1143,10 @@
         <v>42822.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1150,10 +1154,10 @@
         <v>42822.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1161,10 +1165,10 @@
         <v>42823.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1172,10 +1176,10 @@
         <v>42823.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1183,10 +1187,10 @@
         <v>42824.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1194,10 +1198,10 @@
         <v>42824.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1205,10 +1209,10 @@
         <v>42825.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1216,10 +1220,10 @@
         <v>42825.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1254,10 +1258,10 @@
         <v>42767.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1265,10 +1269,10 @@
         <v>42767.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1276,10 +1280,10 @@
         <v>42768.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1287,10 +1291,10 @@
         <v>42768.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1298,10 +1302,10 @@
         <v>42769.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1309,7 +1313,7 @@
         <v>42769.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -1320,10 +1324,10 @@
         <v>42770.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1331,10 +1335,10 @@
         <v>42770.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1342,10 +1346,10 @@
         <v>42771.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1353,10 +1357,10 @@
         <v>42771.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1364,10 +1368,10 @@
         <v>42772.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1375,10 +1379,10 @@
         <v>42772.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1386,10 +1390,10 @@
         <v>42773.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1397,10 +1401,10 @@
         <v>42773.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1408,10 +1412,10 @@
         <v>42774.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1419,10 +1423,10 @@
         <v>42774.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1430,10 +1434,10 @@
         <v>42775.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1441,10 +1445,10 @@
         <v>42775.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1452,10 +1456,10 @@
         <v>42776.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1466,7 +1470,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1474,10 +1478,10 @@
         <v>42777.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1485,10 +1489,10 @@
         <v>42777.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1499,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1507,7 +1511,7 @@
         <v>42778.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1518,10 +1522,10 @@
         <v>42779.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1529,10 +1533,10 @@
         <v>42779.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1540,10 +1544,10 @@
         <v>42780.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1551,7 +1555,7 @@
         <v>42780.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -1562,10 +1566,10 @@
         <v>42781.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1573,10 +1577,10 @@
         <v>42781.8125</v>
       </c>
       <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
         <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1584,10 +1588,10 @@
         <v>42782.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1595,10 +1599,10 @@
         <v>42782.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1606,10 +1610,10 @@
         <v>42783.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1620,7 +1624,7 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1628,10 +1632,10 @@
         <v>42784.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1642,7 +1646,7 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1650,10 +1654,10 @@
         <v>42785.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1661,10 +1665,10 @@
         <v>42785.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1672,10 +1676,10 @@
         <v>42786.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1683,10 +1687,10 @@
         <v>42786.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1694,10 +1698,10 @@
         <v>42787.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1705,10 +1709,10 @@
         <v>42787.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1716,10 +1720,10 @@
         <v>42788.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1727,7 +1731,7 @@
         <v>42788.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>39</v>
@@ -1738,10 +1742,10 @@
         <v>42789.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1749,10 +1753,10 @@
         <v>42789.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1760,10 +1764,10 @@
         <v>42790.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1771,10 +1775,10 @@
         <v>42790.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1782,10 +1786,10 @@
         <v>42791.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1796,7 +1800,7 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1804,10 +1808,10 @@
         <v>42792.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1815,10 +1819,10 @@
         <v>42792.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1826,10 +1830,10 @@
         <v>42793.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1837,10 +1841,10 @@
         <v>42793.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1848,10 +1852,10 @@
         <v>42794.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1859,10 +1863,697 @@
         <v>42794.8125</v>
       </c>
       <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42826.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42826.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42827.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>42827.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42828.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42828.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42829.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42829.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42830.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42830.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42831.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42831.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42832.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42832.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42833.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42833.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42834.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42834.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42835.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42835.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42836.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42836.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42837.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42837.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42838.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42838.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>42839.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>42839.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>42840.3125</v>
+      </c>
+      <c r="B30" t="s">
         <v>9</v>
       </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>42840.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>42841.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>42841.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>42842.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>42842.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>42843.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42843.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>42844.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42844.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>42845.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>42845.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42846.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42846.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>42847.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>42847.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>42848.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>42848.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>42849.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>42849.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>42850.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>42850.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>42851.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>42851.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>42852.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>42852.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>42853.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>42853.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
       <c r="C57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>42854.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>42854.8125</v>
+      </c>
+      <c r="B59" t="s">
         <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>42855.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>42855.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -1901,10 +1901,10 @@
         <v>42826.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1912,10 +1912,10 @@
         <v>42826.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1923,10 +1923,10 @@
         <v>42827.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1934,10 +1934,10 @@
         <v>42827.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1945,10 +1945,10 @@
         <v>42828.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1956,10 +1956,10 @@
         <v>42828.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1967,10 +1967,10 @@
         <v>42829.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1978,10 +1978,10 @@
         <v>42829.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1989,10 +1989,10 @@
         <v>42830.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2000,10 +2000,10 @@
         <v>42830.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2011,10 +2011,10 @@
         <v>42831.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2022,10 +2022,10 @@
         <v>42831.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2033,10 +2033,10 @@
         <v>42832.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>42832.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -2055,10 +2055,10 @@
         <v>42833.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2066,10 +2066,10 @@
         <v>42833.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2077,10 +2077,10 @@
         <v>42834.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2088,10 +2088,10 @@
         <v>42834.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2099,10 +2099,10 @@
         <v>42835.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2110,10 +2110,10 @@
         <v>42835.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2121,10 +2121,10 @@
         <v>42836.3125</v>
       </c>
       <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
         <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2132,10 +2132,10 @@
         <v>42836.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2143,10 +2143,10 @@
         <v>42837.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2154,10 +2154,10 @@
         <v>42837.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2165,10 +2165,10 @@
         <v>42838.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2176,10 +2176,10 @@
         <v>42838.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2187,10 +2187,10 @@
         <v>42839.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2198,10 +2198,10 @@
         <v>42839.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2209,10 +2209,10 @@
         <v>42840.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2220,10 +2220,10 @@
         <v>42840.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2242,10 +2242,10 @@
         <v>42841.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2253,10 +2253,10 @@
         <v>42842.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2264,10 +2264,10 @@
         <v>42842.8125</v>
       </c>
       <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
         <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2275,10 +2275,10 @@
         <v>42843.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2286,10 +2286,10 @@
         <v>42843.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2297,10 +2297,10 @@
         <v>42844.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2308,10 +2308,10 @@
         <v>42844.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>42845.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
@@ -2330,10 +2330,10 @@
         <v>42845.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2341,10 +2341,10 @@
         <v>42846.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2352,10 +2352,10 @@
         <v>42846.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2363,10 +2363,10 @@
         <v>42847.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2374,10 +2374,10 @@
         <v>42847.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2385,10 +2385,10 @@
         <v>42848.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2396,10 +2396,10 @@
         <v>42848.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2407,10 +2407,10 @@
         <v>42849.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2418,10 +2418,10 @@
         <v>42849.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2429,10 +2429,10 @@
         <v>42850.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2440,10 +2440,10 @@
         <v>42850.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2451,10 +2451,10 @@
         <v>42851.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2462,10 +2462,10 @@
         <v>42851.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2473,10 +2473,10 @@
         <v>42852.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2484,10 +2484,10 @@
         <v>42852.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2495,10 +2495,10 @@
         <v>42853.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2506,10 +2506,10 @@
         <v>42853.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>42854.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2528,10 +2528,10 @@
         <v>42854.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2539,10 +2539,10 @@
         <v>42855.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2550,10 +2550,10 @@
         <v>42855.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DYNA\Mo_shift\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mar2017" sheetId="1" r:id="rId1"/>
     <sheet name="Feb2017" sheetId="2" r:id="rId2"/>
-    <sheet name="Apr2017" sheetId="3" r:id="rId3"/>
+    <sheet name="May2017" sheetId="3" r:id="rId3"/>
+    <sheet name="Apr2017" sheetId="4" r:id="rId4"/>
+    <sheet name="Jun2017" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="50">
   <si>
     <t>ts</t>
   </si>
@@ -163,16 +170,19 @@
   </si>
   <si>
     <t>Tinc</t>
+  </si>
+  <si>
+    <t>JunSat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +246,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -282,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +332,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +367,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,17 +543,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A53" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42795.3125</v>
       </c>
@@ -555,7 +575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42795.8125</v>
       </c>
@@ -566,7 +586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42796.3125</v>
       </c>
@@ -577,7 +597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42796.8125</v>
       </c>
@@ -588,7 +608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42797.3125</v>
       </c>
@@ -599,7 +619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42797.8125</v>
       </c>
@@ -610,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42798.3125</v>
       </c>
@@ -621,7 +641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42798.8125</v>
       </c>
@@ -632,7 +652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42799.3125</v>
       </c>
@@ -643,7 +663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42799.8125</v>
       </c>
@@ -654,7 +674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42800.3125</v>
       </c>
@@ -665,7 +685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42800.8125</v>
       </c>
@@ -676,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42801.3125</v>
       </c>
@@ -687,7 +707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42801.8125</v>
       </c>
@@ -698,7 +718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42802.3125</v>
       </c>
@@ -709,7 +729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42802.8125</v>
       </c>
@@ -720,7 +740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42803.3125</v>
       </c>
@@ -731,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42803.8125</v>
       </c>
@@ -742,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42804.3125</v>
       </c>
@@ -753,7 +773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42804.8125</v>
       </c>
@@ -764,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42805.3125</v>
       </c>
@@ -775,7 +795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42805.8125</v>
       </c>
@@ -786,7 +806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42806.3125</v>
       </c>
@@ -797,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42806.8125</v>
       </c>
@@ -808,7 +828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42807.3125</v>
       </c>
@@ -819,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42807.8125</v>
       </c>
@@ -830,7 +850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42808.3125</v>
       </c>
@@ -841,7 +861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42808.8125</v>
       </c>
@@ -852,7 +872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42809.3125</v>
       </c>
@@ -863,7 +883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42809.8125</v>
       </c>
@@ -874,7 +894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42810.3125</v>
       </c>
@@ -885,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42810.8125</v>
       </c>
@@ -896,7 +916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42811.3125</v>
       </c>
@@ -907,7 +927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42811.8125</v>
       </c>
@@ -918,7 +938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42812.3125</v>
       </c>
@@ -929,7 +949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42812.8125</v>
       </c>
@@ -940,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42813.3125</v>
       </c>
@@ -951,7 +971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42813.8125</v>
       </c>
@@ -962,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42814.3125</v>
       </c>
@@ -973,7 +993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42814.8125</v>
       </c>
@@ -984,7 +1004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42815.3125</v>
       </c>
@@ -995,7 +1015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42815.8125</v>
       </c>
@@ -1006,7 +1026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42816.3125</v>
       </c>
@@ -1017,7 +1037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42816.8125</v>
       </c>
@@ -1028,7 +1048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42817.3125</v>
       </c>
@@ -1039,7 +1059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42817.8125</v>
       </c>
@@ -1050,7 +1070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42818.3125</v>
       </c>
@@ -1061,7 +1081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42818.8125</v>
       </c>
@@ -1072,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42819.3125</v>
       </c>
@@ -1083,7 +1103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42819.8125</v>
       </c>
@@ -1094,7 +1114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42820.3125</v>
       </c>
@@ -1105,7 +1125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42820.8125</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42821.3125</v>
       </c>
@@ -1127,7 +1147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42821.8125</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42822.3125</v>
       </c>
@@ -1149,7 +1169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42822.8125</v>
       </c>
@@ -1160,7 +1180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42823.3125</v>
       </c>
@@ -1171,7 +1191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42823.8125</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42824.3125</v>
       </c>
@@ -1193,7 +1213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42824.8125</v>
       </c>
@@ -1204,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42825.3125</v>
       </c>
@@ -1215,7 +1235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42825.8125</v>
       </c>
@@ -1232,17 +1252,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42767.3125</v>
       </c>
@@ -1264,7 +1284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42767.8125</v>
       </c>
@@ -1275,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42768.3125</v>
       </c>
@@ -1286,7 +1306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42768.8125</v>
       </c>
@@ -1297,7 +1317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42769.3125</v>
       </c>
@@ -1308,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42769.8125</v>
       </c>
@@ -1319,7 +1339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42770.3125</v>
       </c>
@@ -1330,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42770.8125</v>
       </c>
@@ -1341,7 +1361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42771.3125</v>
       </c>
@@ -1352,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42771.8125</v>
       </c>
@@ -1363,7 +1383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42772.3125</v>
       </c>
@@ -1374,7 +1394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42772.8125</v>
       </c>
@@ -1385,7 +1405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42773.3125</v>
       </c>
@@ -1396,7 +1416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42773.8125</v>
       </c>
@@ -1407,7 +1427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42774.3125</v>
       </c>
@@ -1418,7 +1438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42774.8125</v>
       </c>
@@ -1429,7 +1449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42775.3125</v>
       </c>
@@ -1440,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42775.8125</v>
       </c>
@@ -1451,7 +1471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42776.3125</v>
       </c>
@@ -1462,7 +1482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42776.8125</v>
       </c>
@@ -1473,7 +1493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42777.3125</v>
       </c>
@@ -1484,7 +1504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42777.8125</v>
       </c>
@@ -1495,7 +1515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42778.3125</v>
       </c>
@@ -1506,7 +1526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42778.8125</v>
       </c>
@@ -1517,7 +1537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42779.3125</v>
       </c>
@@ -1528,7 +1548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42779.8125</v>
       </c>
@@ -1539,7 +1559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42780.3125</v>
       </c>
@@ -1550,7 +1570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42780.8125</v>
       </c>
@@ -1561,7 +1581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42781.3125</v>
       </c>
@@ -1572,7 +1592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42781.8125</v>
       </c>
@@ -1583,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42782.3125</v>
       </c>
@@ -1594,7 +1614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42782.8125</v>
       </c>
@@ -1605,7 +1625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42783.3125</v>
       </c>
@@ -1616,7 +1636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42783.8125</v>
       </c>
@@ -1627,7 +1647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42784.3125</v>
       </c>
@@ -1638,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42784.8125</v>
       </c>
@@ -1649,7 +1669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42785.3125</v>
       </c>
@@ -1660,7 +1680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42785.8125</v>
       </c>
@@ -1671,7 +1691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42786.3125</v>
       </c>
@@ -1682,7 +1702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42786.8125</v>
       </c>
@@ -1693,7 +1713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42787.3125</v>
       </c>
@@ -1704,7 +1724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42787.8125</v>
       </c>
@@ -1715,7 +1735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42788.3125</v>
       </c>
@@ -1726,7 +1746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42788.8125</v>
       </c>
@@ -1737,7 +1757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42789.3125</v>
       </c>
@@ -1748,7 +1768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42789.8125</v>
       </c>
@@ -1759,7 +1779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42790.3125</v>
       </c>
@@ -1770,7 +1790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42790.8125</v>
       </c>
@@ -1781,7 +1801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42791.3125</v>
       </c>
@@ -1792,7 +1812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42791.8125</v>
       </c>
@@ -1803,7 +1823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42792.3125</v>
       </c>
@@ -1814,7 +1834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42792.8125</v>
       </c>
@@ -1825,7 +1845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42793.3125</v>
       </c>
@@ -1836,7 +1856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42793.8125</v>
       </c>
@@ -1847,7 +1867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42794.3125</v>
       </c>
@@ -1858,7 +1878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42794.8125</v>
       </c>
@@ -1875,17 +1895,726 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42856.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42856.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42857.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42857.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42858.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42858.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42859.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42859.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42860.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42860.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42861.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42861.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42862.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42862.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>42863.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42863.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42864.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42864.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42865.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>42865.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>42866.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>42866.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>42867.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>42867.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>42868.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>42868.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>42869.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>42869.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>42870.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>42870.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42871.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42871.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>42872.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>42872.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>42873.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>42873.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>42874.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>42874.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>42875.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>42875.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42876.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42876.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42877.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42877.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>42878.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>42878.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>42879.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>42879.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>42880.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>42880.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>42881.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>42881.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>42882.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>42882.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>42883.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>42883.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>42884.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>42884.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>42885.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>42885.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>42886.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>42886.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42826.3125</v>
       </c>
@@ -1907,7 +2636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42826.8125</v>
       </c>
@@ -1918,7 +2647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42827.3125</v>
       </c>
@@ -1929,7 +2658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42827.8125</v>
       </c>
@@ -1940,7 +2669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42828.3125</v>
       </c>
@@ -1951,7 +2680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42828.8125</v>
       </c>
@@ -1962,7 +2691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42829.3125</v>
       </c>
@@ -1973,7 +2702,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42829.8125</v>
       </c>
@@ -1984,7 +2713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42830.3125</v>
       </c>
@@ -1995,7 +2724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42830.8125</v>
       </c>
@@ -2006,7 +2735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42831.3125</v>
       </c>
@@ -2017,7 +2746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42831.8125</v>
       </c>
@@ -2028,7 +2757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42832.3125</v>
       </c>
@@ -2039,7 +2768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42832.8125</v>
       </c>
@@ -2050,7 +2779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42833.3125</v>
       </c>
@@ -2061,7 +2790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42833.8125</v>
       </c>
@@ -2072,7 +2801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42834.3125</v>
       </c>
@@ -2083,7 +2812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42834.8125</v>
       </c>
@@ -2094,7 +2823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42835.3125</v>
       </c>
@@ -2105,7 +2834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42835.8125</v>
       </c>
@@ -2116,7 +2845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42836.3125</v>
       </c>
@@ -2127,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42836.8125</v>
       </c>
@@ -2138,7 +2867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42837.3125</v>
       </c>
@@ -2149,7 +2878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42837.8125</v>
       </c>
@@ -2160,7 +2889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42838.3125</v>
       </c>
@@ -2171,7 +2900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42838.8125</v>
       </c>
@@ -2182,7 +2911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42839.3125</v>
       </c>
@@ -2193,7 +2922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42839.8125</v>
       </c>
@@ -2204,7 +2933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42840.3125</v>
       </c>
@@ -2215,7 +2944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42840.8125</v>
       </c>
@@ -2226,7 +2955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42841.3125</v>
       </c>
@@ -2237,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42841.8125</v>
       </c>
@@ -2248,7 +2977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42842.3125</v>
       </c>
@@ -2259,7 +2988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42842.8125</v>
       </c>
@@ -2270,7 +2999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42843.3125</v>
       </c>
@@ -2281,7 +3010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42843.8125</v>
       </c>
@@ -2292,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42844.3125</v>
       </c>
@@ -2303,7 +3032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42844.8125</v>
       </c>
@@ -2314,7 +3043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42845.3125</v>
       </c>
@@ -2325,7 +3054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42845.8125</v>
       </c>
@@ -2336,7 +3065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42846.3125</v>
       </c>
@@ -2347,7 +3076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42846.8125</v>
       </c>
@@ -2358,7 +3087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42847.3125</v>
       </c>
@@ -2369,7 +3098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42847.8125</v>
       </c>
@@ -2380,7 +3109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42848.3125</v>
       </c>
@@ -2391,7 +3120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42848.8125</v>
       </c>
@@ -2402,7 +3131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42849.3125</v>
       </c>
@@ -2413,7 +3142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42849.8125</v>
       </c>
@@ -2424,7 +3153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42850.3125</v>
       </c>
@@ -2435,7 +3164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42850.8125</v>
       </c>
@@ -2446,7 +3175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42851.3125</v>
       </c>
@@ -2457,7 +3186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42851.8125</v>
       </c>
@@ -2468,7 +3197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42852.3125</v>
       </c>
@@ -2479,7 +3208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42852.8125</v>
       </c>
@@ -2490,7 +3219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42853.3125</v>
       </c>
@@ -2501,7 +3230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42853.8125</v>
       </c>
@@ -2512,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42854.3125</v>
       </c>
@@ -2523,7 +3252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42854.8125</v>
       </c>
@@ -2534,7 +3263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42855.3125</v>
       </c>
@@ -2545,7 +3274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42855.8125</v>
       </c>
@@ -2554,6 +3283,695 @@
       </c>
       <c r="C61" t="s">
         <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42887.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42887.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42888.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42888.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42889.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42889.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42890.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42890.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42891.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42891.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42892.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42892.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42893.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42893.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>42894.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42894.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42895.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42895.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42896.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>42896.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>42897.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>42897.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>42898.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>42898.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>42899.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>42899.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>42900.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>42900.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>42901.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>42901.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42902.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>42902.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>42903.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>42903.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>42904.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>42904.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>42905.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>42905.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>42906.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>42906.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>42907.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42907.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>42908.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42908.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>42909.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>42909.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>42910.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>42910.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>42911.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>42911.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>42912.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>42912.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>42913.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>42913.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>42914.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>42914.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>42915.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>42915.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>42916.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>42916.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="Jul2017" sheetId="1" r:id="rId1"/>
     <sheet name="Feb2017" sheetId="2" r:id="rId2"/>
-    <sheet name="May2017" sheetId="3" r:id="rId3"/>
+    <sheet name="Apr2017" sheetId="3" r:id="rId3"/>
     <sheet name="Jun2017" sheetId="4" r:id="rId4"/>
-    <sheet name="Apr2017" sheetId="5" r:id="rId5"/>
+    <sheet name="May2017" sheetId="5" r:id="rId5"/>
     <sheet name="Mar2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Aug2017" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="50">
   <si>
     <t>ts</t>
   </si>
@@ -165,10 +166,10 @@
     <t>Tinc</t>
   </si>
   <si>
-    <t>JunSat</t>
+    <t>TinB</t>
   </si>
   <si>
-    <t>TinB</t>
+    <t>JunSat</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1904,684 +1905,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42856.3125</v>
+        <v>42826.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42856.8125</v>
+        <v>42826.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42857.3125</v>
+        <v>42827.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42857.8125</v>
+        <v>42827.8125</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42858.3125</v>
+        <v>42828.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42858.8125</v>
+        <v>42828.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42859.3125</v>
+        <v>42829.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42859.8125</v>
+        <v>42829.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42860.3125</v>
+        <v>42830.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42860.8125</v>
+        <v>42830.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42861.3125</v>
+        <v>42831.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42861.8125</v>
+        <v>42831.8125</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42862.3125</v>
+        <v>42832.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42862.8125</v>
+        <v>42832.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42863.3125</v>
+        <v>42833.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42863.8125</v>
+        <v>42833.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42864.3125</v>
+        <v>42834.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42864.8125</v>
+        <v>42834.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42865.3125</v>
+        <v>42835.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42865.8125</v>
+        <v>42835.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42866.3125</v>
+        <v>42836.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42866.8125</v>
+        <v>42836.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42867.3125</v>
+        <v>42837.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42867.8125</v>
+        <v>42837.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42868.3125</v>
+        <v>42838.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42868.8125</v>
+        <v>42838.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42869.3125</v>
+        <v>42839.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42869.8125</v>
+        <v>42839.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42870.3125</v>
+        <v>42840.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42870.8125</v>
+        <v>42840.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42871.3125</v>
+        <v>42841.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42871.8125</v>
+        <v>42841.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42872.3125</v>
+        <v>42842.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42872.8125</v>
+        <v>42842.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42873.3125</v>
+        <v>42843.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42873.8125</v>
+        <v>42843.8125</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42874.3125</v>
+        <v>42844.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42874.8125</v>
+        <v>42844.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42875.3125</v>
+        <v>42845.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42875.8125</v>
+        <v>42845.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42876.3125</v>
+        <v>42846.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42876.8125</v>
+        <v>42846.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42877.3125</v>
+        <v>42847.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42877.8125</v>
+        <v>42847.8125</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42878.3125</v>
+        <v>42848.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42878.8125</v>
+        <v>42848.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42879.3125</v>
+        <v>42849.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42879.8125</v>
+        <v>42849.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42880.3125</v>
+        <v>42850.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42880.8125</v>
+        <v>42850.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42881.3125</v>
+        <v>42851.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42881.8125</v>
+        <v>42851.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42882.3125</v>
+        <v>42852.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42882.8125</v>
+        <v>42852.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42883.3125</v>
+        <v>42853.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42883.8125</v>
+        <v>42853.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42884.3125</v>
+        <v>42854.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42884.8125</v>
+        <v>42854.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42885.3125</v>
+        <v>42855.3125</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42885.8125</v>
+        <v>42855.8125</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>42886.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>42886.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3257,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3300,662 +3279,684 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42826.3125</v>
+        <v>42856.3125</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42826.8125</v>
+        <v>42856.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42827.3125</v>
+        <v>42857.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42827.8125</v>
+        <v>42857.8125</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42828.3125</v>
+        <v>42858.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42828.8125</v>
+        <v>42858.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42829.3125</v>
+        <v>42859.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42829.8125</v>
+        <v>42859.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42830.3125</v>
+        <v>42860.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42830.8125</v>
+        <v>42860.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42831.3125</v>
+        <v>42861.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42831.8125</v>
+        <v>42861.8125</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42832.3125</v>
+        <v>42862.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42832.8125</v>
+        <v>42862.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42833.3125</v>
+        <v>42863.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42833.8125</v>
+        <v>42863.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42834.3125</v>
+        <v>42864.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42834.8125</v>
+        <v>42864.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42835.3125</v>
+        <v>42865.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42835.8125</v>
+        <v>42865.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42836.3125</v>
+        <v>42866.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42836.8125</v>
+        <v>42866.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42837.3125</v>
+        <v>42867.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42837.8125</v>
+        <v>42867.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42838.3125</v>
+        <v>42868.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42838.8125</v>
+        <v>42868.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42839.3125</v>
+        <v>42869.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42839.8125</v>
+        <v>42869.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42840.3125</v>
+        <v>42870.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42840.8125</v>
+        <v>42870.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42841.3125</v>
+        <v>42871.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42841.8125</v>
+        <v>42871.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42842.3125</v>
+        <v>42872.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42842.8125</v>
+        <v>42872.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42843.3125</v>
+        <v>42873.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42843.8125</v>
+        <v>42873.8125</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42844.3125</v>
+        <v>42874.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42844.8125</v>
+        <v>42874.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42845.3125</v>
+        <v>42875.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42845.8125</v>
+        <v>42875.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42846.3125</v>
+        <v>42876.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42846.8125</v>
+        <v>42876.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42847.3125</v>
+        <v>42877.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42847.8125</v>
+        <v>42877.8125</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42848.3125</v>
+        <v>42878.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42848.8125</v>
+        <v>42878.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42849.3125</v>
+        <v>42879.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42849.8125</v>
+        <v>42879.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42850.3125</v>
+        <v>42880.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42850.8125</v>
+        <v>42880.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42851.3125</v>
+        <v>42881.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42851.8125</v>
+        <v>42881.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42852.3125</v>
+        <v>42882.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42852.8125</v>
+        <v>42882.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42853.3125</v>
+        <v>42883.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42853.8125</v>
+        <v>42883.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42854.3125</v>
+        <v>42884.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42854.8125</v>
+        <v>42884.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42855.3125</v>
+        <v>42885.3125</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42855.8125</v>
+        <v>42885.8125</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>42886.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>42886.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4155,7 +4156,7 @@
         <v>42802.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -4474,7 +4475,7 @@
         <v>42817.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
@@ -4595,7 +4596,7 @@
         <v>42822.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
         <v>42</v>
@@ -4665,6 +4666,715 @@
       </c>
       <c r="C63" t="s">
         <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42948.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42948.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42949.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>42949.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42950.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42950.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42951.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42951.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42952.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42952.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42953.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42953.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42954.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42954.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42955.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42955.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42956.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42956.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42957.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42957.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42958.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42958.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42959.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42959.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42960.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42960.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>42961.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>42961.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>42962.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>42962.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>42963.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>42963.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>42964.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>42964.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>42965.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42965.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>42966.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42966.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>42967.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>42967.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42968.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42968.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>42969.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>42969.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>42970.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>42970.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>42971.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>42971.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>42972.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>42972.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>42973.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>42973.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>42974.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>42974.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>42975.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>42975.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>42976.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>42976.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>42977.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>42977.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>42978.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>42978.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -14,13 +14,14 @@
     <sheet name="May2017" sheetId="5" r:id="rId5"/>
     <sheet name="Mar2017" sheetId="6" r:id="rId6"/>
     <sheet name="Aug2017" sheetId="7" r:id="rId7"/>
+    <sheet name="Sep2017" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="51">
   <si>
     <t>ts</t>
   </si>
@@ -170,6 +171,9 @@
   </si>
   <si>
     <t>JunSat</t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
 </sst>
 </file>
@@ -5380,4 +5384,691 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42979.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42979.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42980.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>42980.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42981.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42981.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42982.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42982.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42983.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42983.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42984.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42984.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42985.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42985.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42986.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42986.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42987.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42987.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42988.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42988.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42989.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42989.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42990.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42990.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42991.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42991.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>42992.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>42992.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>42993.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>42993.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>42994.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>42994.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>42995.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>42995.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>42996.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42996.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>42997.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42997.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>42998.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>42998.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42999.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42999.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>43000.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>43000.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>43001.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>43001.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>43002.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>43002.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>43003.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>43003.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>43004.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>43004.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>43005.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>43005.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>43006.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>43006.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>43007.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>43007.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>43008.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>43008.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -9,19 +9,20 @@
   <sheets>
     <sheet name="Jul2017" sheetId="1" r:id="rId1"/>
     <sheet name="Feb2017" sheetId="2" r:id="rId2"/>
-    <sheet name="Apr2017" sheetId="3" r:id="rId3"/>
-    <sheet name="Jun2017" sheetId="4" r:id="rId4"/>
-    <sheet name="May2017" sheetId="5" r:id="rId5"/>
-    <sheet name="Mar2017" sheetId="6" r:id="rId6"/>
-    <sheet name="Aug2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Sep2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Oct2017" sheetId="3" r:id="rId3"/>
+    <sheet name="Apr2017" sheetId="4" r:id="rId4"/>
+    <sheet name="Jun2017" sheetId="5" r:id="rId5"/>
+    <sheet name="May2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Mar2017" sheetId="7" r:id="rId7"/>
+    <sheet name="Aug2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Sep2017" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="51">
   <si>
     <t>ts</t>
   </si>
@@ -170,10 +171,10 @@
     <t>TinB</t>
   </si>
   <si>
-    <t>JunSat</t>
+    <t>Web</t>
   </si>
   <si>
-    <t>Web</t>
+    <t>JunSat</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1888,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1909,662 +1910,684 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42826.3125</v>
+        <v>43009.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42826.8125</v>
+        <v>43009.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42827.3125</v>
+        <v>43010.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42827.8125</v>
+        <v>43010.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42828.3125</v>
+        <v>43011.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42828.8125</v>
+        <v>43011.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42829.3125</v>
+        <v>43012.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42829.8125</v>
+        <v>43012.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42830.3125</v>
+        <v>43013.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42830.8125</v>
+        <v>43013.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42831.3125</v>
+        <v>43014.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42831.8125</v>
+        <v>43014.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42832.3125</v>
+        <v>43015.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42832.8125</v>
+        <v>43015.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42833.3125</v>
+        <v>43016.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42833.8125</v>
+        <v>43016.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42834.3125</v>
+        <v>43017.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42834.8125</v>
+        <v>43017.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42835.3125</v>
+        <v>43018.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42835.8125</v>
+        <v>43018.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42836.3125</v>
+        <v>43019.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42836.8125</v>
+        <v>43019.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42837.3125</v>
+        <v>43020.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42837.8125</v>
+        <v>43020.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42838.3125</v>
+        <v>43021.3125</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42838.8125</v>
+        <v>43021.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42839.3125</v>
+        <v>43022.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42839.8125</v>
+        <v>43022.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42840.3125</v>
+        <v>43023.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42840.8125</v>
+        <v>43023.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42841.3125</v>
+        <v>43024.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42841.8125</v>
+        <v>43024.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42842.3125</v>
+        <v>43025.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42842.8125</v>
+        <v>43025.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42843.3125</v>
+        <v>43026.3125</v>
       </c>
       <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42843.8125</v>
+        <v>43026.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42844.3125</v>
+        <v>43027.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42844.8125</v>
+        <v>43027.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42845.3125</v>
+        <v>43028.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42845.8125</v>
+        <v>43028.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42846.3125</v>
+        <v>43029.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42846.8125</v>
+        <v>43029.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42847.3125</v>
+        <v>43030.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42847.8125</v>
+        <v>43030.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42848.3125</v>
+        <v>43031.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42848.8125</v>
+        <v>43031.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42849.3125</v>
+        <v>43032.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42849.8125</v>
+        <v>43032.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42850.3125</v>
+        <v>43033.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42850.8125</v>
+        <v>43033.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42851.3125</v>
+        <v>43034.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42851.8125</v>
+        <v>43034.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42852.3125</v>
+        <v>43035.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42852.8125</v>
+        <v>43035.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42853.3125</v>
+        <v>43036.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42853.8125</v>
+        <v>43036.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42854.3125</v>
+        <v>43037.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42854.8125</v>
+        <v>43037.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42855.3125</v>
+        <v>43038.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42855.8125</v>
+        <v>43038.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>43039.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>43039.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2596,164 +2619,164 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42887.3125</v>
+        <v>42826.3125</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42887.8125</v>
+        <v>42826.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42888.3125</v>
+        <v>42827.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42888.8125</v>
+        <v>42827.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42889.3125</v>
+        <v>42828.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42889.8125</v>
+        <v>42828.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42890.3125</v>
+        <v>42829.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42890.8125</v>
+        <v>42829.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42891.3125</v>
+        <v>42830.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42891.8125</v>
+        <v>42830.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42892.3125</v>
+        <v>42831.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42892.8125</v>
+        <v>42831.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42893.3125</v>
+        <v>42832.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42893.8125</v>
+        <v>42832.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42894.3125</v>
+        <v>42833.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -2761,142 +2784,142 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42894.8125</v>
+        <v>42833.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42895.3125</v>
+        <v>42834.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42895.8125</v>
+        <v>42834.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42896.3125</v>
+        <v>42835.3125</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42896.8125</v>
+        <v>42835.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42897.3125</v>
+        <v>42836.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42897.8125</v>
+        <v>42836.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42898.3125</v>
+        <v>42837.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42898.8125</v>
+        <v>42837.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42899.3125</v>
+        <v>42838.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42899.8125</v>
+        <v>42838.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42900.3125</v>
+        <v>42839.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42900.8125</v>
+        <v>42839.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -2904,208 +2927,208 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42901.3125</v>
+        <v>42840.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42901.8125</v>
+        <v>42840.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42902.3125</v>
+        <v>42841.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42902.8125</v>
+        <v>42841.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42903.3125</v>
+        <v>42842.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42903.8125</v>
+        <v>42842.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42904.3125</v>
+        <v>42843.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42904.8125</v>
+        <v>42843.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42905.3125</v>
+        <v>42844.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42905.8125</v>
+        <v>42844.8125</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42906.3125</v>
+        <v>42845.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42906.8125</v>
+        <v>42845.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42907.3125</v>
+        <v>42846.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42907.8125</v>
+        <v>42846.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42908.3125</v>
+        <v>42847.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42908.8125</v>
+        <v>42847.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42909.3125</v>
+        <v>42848.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42909.8125</v>
+        <v>42848.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42910.3125</v>
+        <v>42849.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -3113,65 +3136,65 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42910.8125</v>
+        <v>42849.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42911.3125</v>
+        <v>42850.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42911.8125</v>
+        <v>42850.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42912.3125</v>
+        <v>42851.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42912.8125</v>
+        <v>42851.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42913.3125</v>
+        <v>42852.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>42</v>
@@ -3179,79 +3202,79 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42913.8125</v>
+        <v>42852.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42914.3125</v>
+        <v>42853.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42914.8125</v>
+        <v>42853.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42915.3125</v>
+        <v>42854.3125</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42915.8125</v>
+        <v>42854.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42916.3125</v>
+        <v>42855.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42916.8125</v>
+        <v>42855.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3284,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3283,54 +3306,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42856.3125</v>
+        <v>42887.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42856.8125</v>
+        <v>42887.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42857.3125</v>
+        <v>42888.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42857.8125</v>
+        <v>42888.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42858.3125</v>
+        <v>42889.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -3338,43 +3361,43 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42858.8125</v>
+        <v>42889.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42859.3125</v>
+        <v>42890.3125</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42859.8125</v>
+        <v>42890.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42860.3125</v>
+        <v>42891.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -3382,307 +3405,307 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42860.8125</v>
+        <v>42891.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42861.3125</v>
+        <v>42892.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42861.8125</v>
+        <v>42892.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42862.3125</v>
+        <v>42893.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42862.8125</v>
+        <v>42893.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42863.3125</v>
+        <v>42894.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42863.8125</v>
+        <v>42894.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42864.3125</v>
+        <v>42895.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42864.8125</v>
+        <v>42895.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42865.3125</v>
+        <v>42896.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42865.8125</v>
+        <v>42896.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42866.3125</v>
+        <v>42897.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42866.8125</v>
+        <v>42897.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42867.3125</v>
+        <v>42898.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42867.8125</v>
+        <v>42898.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42868.3125</v>
+        <v>42899.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42868.8125</v>
+        <v>42899.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42869.3125</v>
+        <v>42900.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42869.8125</v>
+        <v>42900.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42870.3125</v>
+        <v>42901.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42870.8125</v>
+        <v>42901.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42871.3125</v>
+        <v>42902.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42871.8125</v>
+        <v>42902.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42872.3125</v>
+        <v>42903.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42872.8125</v>
+        <v>42903.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42873.3125</v>
+        <v>42904.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42873.8125</v>
+        <v>42904.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42874.3125</v>
+        <v>42905.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -3690,277 +3713,255 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42874.8125</v>
+        <v>42905.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42875.3125</v>
+        <v>42906.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42875.8125</v>
+        <v>42906.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42876.3125</v>
+        <v>42907.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42876.8125</v>
+        <v>42907.8125</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42877.3125</v>
+        <v>42908.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42877.8125</v>
+        <v>42908.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42878.3125</v>
+        <v>42909.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42878.8125</v>
+        <v>42909.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42879.3125</v>
+        <v>42910.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42879.8125</v>
+        <v>42910.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42880.3125</v>
+        <v>42911.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42880.8125</v>
+        <v>42911.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42881.3125</v>
+        <v>42912.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42881.8125</v>
+        <v>42912.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42882.3125</v>
+        <v>42913.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42882.8125</v>
+        <v>42913.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42883.3125</v>
+        <v>42914.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42883.8125</v>
+        <v>42914.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42884.3125</v>
+        <v>42915.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42884.8125</v>
+        <v>42915.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42885.3125</v>
+        <v>42916.3125</v>
       </c>
       <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
         <v>21</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42885.8125</v>
+        <v>42916.8125</v>
       </c>
       <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
         <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>42886.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>42886.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3992,549 +3993,549 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42795.3125</v>
+        <v>42856.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42795.8125</v>
+        <v>42856.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42796.3125</v>
+        <v>42857.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42796.8125</v>
+        <v>42857.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42797.3125</v>
+        <v>42858.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42797.8125</v>
+        <v>42858.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42798.3125</v>
+        <v>42859.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42798.8125</v>
+        <v>42859.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42799.3125</v>
+        <v>42860.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42799.8125</v>
+        <v>42860.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42800.3125</v>
+        <v>42861.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42800.8125</v>
+        <v>42861.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42801.3125</v>
+        <v>42862.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42801.8125</v>
+        <v>42862.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42802.3125</v>
+        <v>42863.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42802.8125</v>
+        <v>42863.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42803.3125</v>
+        <v>42864.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42803.8125</v>
+        <v>42864.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42804.3125</v>
+        <v>42865.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42804.8125</v>
+        <v>42865.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42805.3125</v>
+        <v>42866.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42805.8125</v>
+        <v>42866.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42806.3125</v>
+        <v>42867.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42806.8125</v>
+        <v>42867.8125</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42807.3125</v>
+        <v>42868.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42807.8125</v>
+        <v>42868.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42808.3125</v>
+        <v>42869.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42808.8125</v>
+        <v>42869.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42809.3125</v>
+        <v>42870.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42809.8125</v>
+        <v>42870.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42810.3125</v>
+        <v>42871.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42810.8125</v>
+        <v>42871.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42811.3125</v>
+        <v>42872.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42811.8125</v>
+        <v>42872.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42812.3125</v>
+        <v>42873.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42812.8125</v>
+        <v>42873.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42813.3125</v>
+        <v>42874.3125</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42813.8125</v>
+        <v>42874.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42814.3125</v>
+        <v>42875.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42814.8125</v>
+        <v>42875.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42815.3125</v>
+        <v>42876.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42815.8125</v>
+        <v>42876.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42816.3125</v>
+        <v>42877.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42816.8125</v>
+        <v>42877.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42817.3125</v>
+        <v>42878.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42817.8125</v>
+        <v>42878.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42818.3125</v>
+        <v>42879.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42818.8125</v>
+        <v>42879.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42819.3125</v>
+        <v>42880.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42819.8125</v>
+        <v>42880.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -4542,134 +4543,134 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42820.3125</v>
+        <v>42881.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42820.8125</v>
+        <v>42881.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42821.3125</v>
+        <v>42882.3125</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42821.8125</v>
+        <v>42882.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42822.3125</v>
+        <v>42883.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42822.8125</v>
+        <v>42883.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42823.3125</v>
+        <v>42884.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42823.8125</v>
+        <v>42884.8125</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42824.3125</v>
+        <v>42885.3125</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42824.8125</v>
+        <v>42885.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42825.3125</v>
+        <v>42886.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42825.8125</v>
+        <v>42886.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4701,87 +4702,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42948.3125</v>
+        <v>42795.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42948.8125</v>
+        <v>42795.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42949.3125</v>
+        <v>42796.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42949.8125</v>
+        <v>42796.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42950.3125</v>
+        <v>42797.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42950.8125</v>
+        <v>42797.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42951.3125</v>
+        <v>42798.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42951.8125</v>
+        <v>42798.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -4789,596 +4790,596 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42952.3125</v>
+        <v>42799.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42952.8125</v>
+        <v>42799.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42953.3125</v>
+        <v>42800.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42953.8125</v>
+        <v>42800.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42954.3125</v>
+        <v>42801.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42954.8125</v>
+        <v>42801.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42955.3125</v>
+        <v>42802.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42955.8125</v>
+        <v>42802.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42956.3125</v>
+        <v>42803.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42956.8125</v>
+        <v>42803.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42957.3125</v>
+        <v>42804.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42957.8125</v>
+        <v>42804.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42958.3125</v>
+        <v>42805.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42958.8125</v>
+        <v>42805.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42959.3125</v>
+        <v>42806.3125</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42959.8125</v>
+        <v>42806.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42960.3125</v>
+        <v>42807.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42960.8125</v>
+        <v>42807.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42961.3125</v>
+        <v>42808.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42961.8125</v>
+        <v>42808.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42962.3125</v>
+        <v>42809.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42962.8125</v>
+        <v>42809.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42963.3125</v>
+        <v>42810.3125</v>
       </c>
       <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
         <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42963.8125</v>
+        <v>42810.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42964.3125</v>
+        <v>42811.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42964.8125</v>
+        <v>42811.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42965.3125</v>
+        <v>42812.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42965.8125</v>
+        <v>42812.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42966.3125</v>
+        <v>42813.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42966.8125</v>
+        <v>42813.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42967.3125</v>
+        <v>42814.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42967.8125</v>
+        <v>42814.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42968.3125</v>
+        <v>42815.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42968.8125</v>
+        <v>42815.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42969.3125</v>
+        <v>42816.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42969.8125</v>
+        <v>42816.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42970.3125</v>
+        <v>42817.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42970.8125</v>
+        <v>42817.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42971.3125</v>
+        <v>42818.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42971.8125</v>
+        <v>42818.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42972.3125</v>
+        <v>42819.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42972.8125</v>
+        <v>42819.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42973.3125</v>
+        <v>42820.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42973.8125</v>
+        <v>42820.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42974.3125</v>
+        <v>42821.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42974.8125</v>
+        <v>42821.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42975.3125</v>
+        <v>42822.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42975.8125</v>
+        <v>42822.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42976.3125</v>
+        <v>42823.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42976.8125</v>
+        <v>42823.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42977.3125</v>
+        <v>42824.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42977.8125</v>
+        <v>42824.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42978.3125</v>
+        <v>42825.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42978.8125</v>
+        <v>42825.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5387,6 +5388,715 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42948.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42948.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42949.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>42949.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42950.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42950.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42951.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42951.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42952.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42952.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42953.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42953.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42954.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42954.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42955.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42955.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42956.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42956.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42957.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42957.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42958.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42958.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42959.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42959.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42960.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42960.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>42961.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>42961.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>42962.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>42962.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>42963.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>42963.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>42964.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>42964.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>42965.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42965.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>42966.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42966.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>42967.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>42967.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42968.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42968.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>42969.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>42969.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>42970.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>42970.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>42971.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>42971.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>42972.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>42972.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>42973.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>42973.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>42974.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>42974.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>42975.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>42975.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>42976.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>42976.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>42977.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>42977.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>42978.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>42978.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
@@ -5449,7 +6159,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5867,7 +6577,7 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3">

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -11,18 +11,19 @@
     <sheet name="Feb2017" sheetId="2" r:id="rId2"/>
     <sheet name="Oct2017" sheetId="3" r:id="rId3"/>
     <sheet name="Apr2017" sheetId="4" r:id="rId4"/>
-    <sheet name="Jun2017" sheetId="5" r:id="rId5"/>
-    <sheet name="May2017" sheetId="6" r:id="rId6"/>
-    <sheet name="Mar2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Aug2017" sheetId="8" r:id="rId8"/>
-    <sheet name="Sep2017" sheetId="9" r:id="rId9"/>
+    <sheet name="Nov2017" sheetId="5" r:id="rId5"/>
+    <sheet name="Jun2017" sheetId="6" r:id="rId6"/>
+    <sheet name="May2017" sheetId="7" r:id="rId7"/>
+    <sheet name="Mar2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Aug2017" sheetId="9" r:id="rId9"/>
+    <sheet name="Sep2017" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="51">
   <si>
     <t>ts</t>
   </si>
@@ -1243,6 +1244,693 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42979.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42979.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42980.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>42980.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42981.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42981.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42982.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42982.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42983.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42983.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42984.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42984.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42985.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42985.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42986.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42986.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42987.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42987.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42988.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42988.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42989.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42989.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42990.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42990.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42991.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42991.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>42992.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>42992.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>42993.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>42993.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>42994.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>42994.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>42995.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>42995.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>42996.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42996.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>42997.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42997.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>42998.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>42998.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42999.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42999.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>43000.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>43000.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>43001.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>43001.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>43002.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>43002.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>43003.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>43003.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>43004.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>43004.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>43005.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>43005.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>43006.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>43006.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>43007.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>43007.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>43008.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>43008.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C57"/>
@@ -3306,483 +3994,483 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42887.3125</v>
+        <v>43040.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42887.8125</v>
+        <v>43040.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42888.3125</v>
+        <v>43041.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42888.8125</v>
+        <v>43041.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42889.3125</v>
+        <v>43042.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42889.8125</v>
+        <v>43042.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42890.3125</v>
+        <v>43043.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42890.8125</v>
+        <v>43043.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42891.3125</v>
+        <v>43044.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42891.8125</v>
+        <v>43044.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42892.3125</v>
+        <v>43045.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42892.8125</v>
+        <v>43045.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42893.3125</v>
+        <v>43046.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42893.8125</v>
+        <v>43046.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42894.3125</v>
+        <v>43047.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42894.8125</v>
+        <v>43047.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42895.3125</v>
+        <v>43048.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42895.8125</v>
+        <v>43048.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42896.3125</v>
+        <v>43049.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42896.8125</v>
+        <v>43049.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42897.3125</v>
+        <v>43050.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42897.8125</v>
+        <v>43050.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42898.3125</v>
+        <v>43051.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42898.8125</v>
+        <v>43051.8125</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42899.3125</v>
+        <v>43052.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42899.8125</v>
+        <v>43052.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42900.3125</v>
+        <v>43053.3125</v>
       </c>
       <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42900.8125</v>
+        <v>43053.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42901.3125</v>
+        <v>43054.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42901.8125</v>
+        <v>43054.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42902.3125</v>
+        <v>43055.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42902.8125</v>
+        <v>43055.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42903.3125</v>
+        <v>43056.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42903.8125</v>
+        <v>43056.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42904.3125</v>
+        <v>43057.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42904.8125</v>
+        <v>43057.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42905.3125</v>
+        <v>43058.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42905.8125</v>
+        <v>43058.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42906.3125</v>
+        <v>43059.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42906.8125</v>
+        <v>43059.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42907.3125</v>
+        <v>43060.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42907.8125</v>
+        <v>43060.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42908.3125</v>
+        <v>43061.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42908.8125</v>
+        <v>43061.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -3790,178 +4478,178 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42909.3125</v>
+        <v>43062.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42909.8125</v>
+        <v>43062.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42910.3125</v>
+        <v>43063.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42910.8125</v>
+        <v>43063.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42911.3125</v>
+        <v>43064.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42911.8125</v>
+        <v>43064.8125</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42912.3125</v>
+        <v>43065.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42912.8125</v>
+        <v>43065.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42913.3125</v>
+        <v>43066.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42913.8125</v>
+        <v>43066.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42914.3125</v>
+        <v>43067.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42914.8125</v>
+        <v>43067.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42915.3125</v>
+        <v>43068.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42915.8125</v>
+        <v>43068.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42916.3125</v>
+        <v>43069.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42916.8125</v>
+        <v>43069.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3971,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3993,54 +4681,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42856.3125</v>
+        <v>42887.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42856.8125</v>
+        <v>42887.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42857.3125</v>
+        <v>42888.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42857.8125</v>
+        <v>42888.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42858.3125</v>
+        <v>42889.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -4048,43 +4736,43 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42858.8125</v>
+        <v>42889.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42859.3125</v>
+        <v>42890.3125</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42859.8125</v>
+        <v>42890.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42860.3125</v>
+        <v>42891.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -4092,307 +4780,307 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42860.8125</v>
+        <v>42891.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42861.3125</v>
+        <v>42892.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42861.8125</v>
+        <v>42892.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42862.3125</v>
+        <v>42893.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42862.8125</v>
+        <v>42893.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42863.3125</v>
+        <v>42894.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42863.8125</v>
+        <v>42894.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42864.3125</v>
+        <v>42895.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42864.8125</v>
+        <v>42895.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42865.3125</v>
+        <v>42896.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42865.8125</v>
+        <v>42896.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42866.3125</v>
+        <v>42897.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42866.8125</v>
+        <v>42897.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42867.3125</v>
+        <v>42898.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42867.8125</v>
+        <v>42898.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42868.3125</v>
+        <v>42899.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42868.8125</v>
+        <v>42899.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42869.3125</v>
+        <v>42900.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42869.8125</v>
+        <v>42900.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42870.3125</v>
+        <v>42901.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42870.8125</v>
+        <v>42901.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42871.3125</v>
+        <v>42902.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42871.8125</v>
+        <v>42902.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42872.3125</v>
+        <v>42903.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42872.8125</v>
+        <v>42903.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42873.3125</v>
+        <v>42904.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42873.8125</v>
+        <v>42904.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42874.3125</v>
+        <v>42905.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -4400,277 +5088,255 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42874.8125</v>
+        <v>42905.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42875.3125</v>
+        <v>42906.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42875.8125</v>
+        <v>42906.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42876.3125</v>
+        <v>42907.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42876.8125</v>
+        <v>42907.8125</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42877.3125</v>
+        <v>42908.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42877.8125</v>
+        <v>42908.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42878.3125</v>
+        <v>42909.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42878.8125</v>
+        <v>42909.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42879.3125</v>
+        <v>42910.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42879.8125</v>
+        <v>42910.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42880.3125</v>
+        <v>42911.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42880.8125</v>
+        <v>42911.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42881.3125</v>
+        <v>42912.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42881.8125</v>
+        <v>42912.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42882.3125</v>
+        <v>42913.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42882.8125</v>
+        <v>42913.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42883.3125</v>
+        <v>42914.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42883.8125</v>
+        <v>42914.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42884.3125</v>
+        <v>42915.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42884.8125</v>
+        <v>42915.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42885.3125</v>
+        <v>42916.3125</v>
       </c>
       <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
         <v>21</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42885.8125</v>
+        <v>42916.8125</v>
       </c>
       <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
         <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>42886.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>42886.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4702,549 +5368,549 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42795.3125</v>
+        <v>42856.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42795.8125</v>
+        <v>42856.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42796.3125</v>
+        <v>42857.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42796.8125</v>
+        <v>42857.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42797.3125</v>
+        <v>42858.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42797.8125</v>
+        <v>42858.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42798.3125</v>
+        <v>42859.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42798.8125</v>
+        <v>42859.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42799.3125</v>
+        <v>42860.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42799.8125</v>
+        <v>42860.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42800.3125</v>
+        <v>42861.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42800.8125</v>
+        <v>42861.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42801.3125</v>
+        <v>42862.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42801.8125</v>
+        <v>42862.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42802.3125</v>
+        <v>42863.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42802.8125</v>
+        <v>42863.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42803.3125</v>
+        <v>42864.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42803.8125</v>
+        <v>42864.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42804.3125</v>
+        <v>42865.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42804.8125</v>
+        <v>42865.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42805.3125</v>
+        <v>42866.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42805.8125</v>
+        <v>42866.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42806.3125</v>
+        <v>42867.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42806.8125</v>
+        <v>42867.8125</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42807.3125</v>
+        <v>42868.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42807.8125</v>
+        <v>42868.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42808.3125</v>
+        <v>42869.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42808.8125</v>
+        <v>42869.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42809.3125</v>
+        <v>42870.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42809.8125</v>
+        <v>42870.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42810.3125</v>
+        <v>42871.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42810.8125</v>
+        <v>42871.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42811.3125</v>
+        <v>42872.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42811.8125</v>
+        <v>42872.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42812.3125</v>
+        <v>42873.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42812.8125</v>
+        <v>42873.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42813.3125</v>
+        <v>42874.3125</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42813.8125</v>
+        <v>42874.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42814.3125</v>
+        <v>42875.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42814.8125</v>
+        <v>42875.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42815.3125</v>
+        <v>42876.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42815.8125</v>
+        <v>42876.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42816.3125</v>
+        <v>42877.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42816.8125</v>
+        <v>42877.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42817.3125</v>
+        <v>42878.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42817.8125</v>
+        <v>42878.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42818.3125</v>
+        <v>42879.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42818.8125</v>
+        <v>42879.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42819.3125</v>
+        <v>42880.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42819.8125</v>
+        <v>42880.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -5252,134 +5918,134 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42820.3125</v>
+        <v>42881.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42820.8125</v>
+        <v>42881.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42821.3125</v>
+        <v>42882.3125</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42821.8125</v>
+        <v>42882.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42822.3125</v>
+        <v>42883.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42822.8125</v>
+        <v>42883.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42823.3125</v>
+        <v>42884.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42823.8125</v>
+        <v>42884.8125</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42824.3125</v>
+        <v>42885.3125</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42824.8125</v>
+        <v>42885.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42825.3125</v>
+        <v>42886.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42825.8125</v>
+        <v>42886.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5411,87 +6077,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42948.3125</v>
+        <v>42795.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42948.8125</v>
+        <v>42795.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42949.3125</v>
+        <v>42796.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42949.8125</v>
+        <v>42796.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42950.3125</v>
+        <v>42797.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42950.8125</v>
+        <v>42797.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42951.3125</v>
+        <v>42798.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42951.8125</v>
+        <v>42798.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -5499,596 +6165,596 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42952.3125</v>
+        <v>42799.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42952.8125</v>
+        <v>42799.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42953.3125</v>
+        <v>42800.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42953.8125</v>
+        <v>42800.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42954.3125</v>
+        <v>42801.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42954.8125</v>
+        <v>42801.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42955.3125</v>
+        <v>42802.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42955.8125</v>
+        <v>42802.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42956.3125</v>
+        <v>42803.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42956.8125</v>
+        <v>42803.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42957.3125</v>
+        <v>42804.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42957.8125</v>
+        <v>42804.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42958.3125</v>
+        <v>42805.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42958.8125</v>
+        <v>42805.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42959.3125</v>
+        <v>42806.3125</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42959.8125</v>
+        <v>42806.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42960.3125</v>
+        <v>42807.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42960.8125</v>
+        <v>42807.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42961.3125</v>
+        <v>42808.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42961.8125</v>
+        <v>42808.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42962.3125</v>
+        <v>42809.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42962.8125</v>
+        <v>42809.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42963.3125</v>
+        <v>42810.3125</v>
       </c>
       <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
         <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42963.8125</v>
+        <v>42810.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42964.3125</v>
+        <v>42811.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42964.8125</v>
+        <v>42811.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42965.3125</v>
+        <v>42812.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42965.8125</v>
+        <v>42812.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42966.3125</v>
+        <v>42813.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42966.8125</v>
+        <v>42813.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42967.3125</v>
+        <v>42814.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42967.8125</v>
+        <v>42814.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42968.3125</v>
+        <v>42815.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42968.8125</v>
+        <v>42815.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42969.3125</v>
+        <v>42816.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42969.8125</v>
+        <v>42816.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42970.3125</v>
+        <v>42817.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42970.8125</v>
+        <v>42817.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42971.3125</v>
+        <v>42818.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42971.8125</v>
+        <v>42818.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42972.3125</v>
+        <v>42819.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42972.8125</v>
+        <v>42819.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42973.3125</v>
+        <v>42820.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42973.8125</v>
+        <v>42820.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42974.3125</v>
+        <v>42821.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42974.8125</v>
+        <v>42821.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42975.3125</v>
+        <v>42822.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42975.8125</v>
+        <v>42822.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42976.3125</v>
+        <v>42823.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42976.8125</v>
+        <v>42823.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42977.3125</v>
+        <v>42824.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42977.8125</v>
+        <v>42824.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42978.3125</v>
+        <v>42825.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42978.8125</v>
+        <v>42825.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6098,7 +6764,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6120,241 +6786,241 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42979.3125</v>
+        <v>42948.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42979.8125</v>
+        <v>42948.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42980.3125</v>
+        <v>42949.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42980.8125</v>
+        <v>42949.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42981.3125</v>
+        <v>42950.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42981.8125</v>
+        <v>42950.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42982.3125</v>
+        <v>42951.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42982.8125</v>
+        <v>42951.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42983.3125</v>
+        <v>42952.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42983.8125</v>
+        <v>42952.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42984.3125</v>
+        <v>42953.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42984.8125</v>
+        <v>42953.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42985.3125</v>
+        <v>42954.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42985.8125</v>
+        <v>42954.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42986.3125</v>
+        <v>42955.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42986.8125</v>
+        <v>42955.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42987.3125</v>
+        <v>42956.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42987.8125</v>
+        <v>42956.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42988.3125</v>
+        <v>42957.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42988.8125</v>
+        <v>42957.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42989.3125</v>
+        <v>42958.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42989.8125</v>
+        <v>42958.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -6362,420 +7028,442 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42990.3125</v>
+        <v>42959.3125</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42990.8125</v>
+        <v>42959.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42991.3125</v>
+        <v>42960.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42991.8125</v>
+        <v>42960.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42992.3125</v>
+        <v>42961.3125</v>
       </c>
       <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42992.8125</v>
+        <v>42961.8125</v>
       </c>
       <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42993.3125</v>
+        <v>42962.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42993.8125</v>
+        <v>42962.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42994.3125</v>
+        <v>42963.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42994.8125</v>
+        <v>42963.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42995.3125</v>
+        <v>42964.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42995.8125</v>
+        <v>42964.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42996.3125</v>
+        <v>42965.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42996.8125</v>
+        <v>42965.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42997.3125</v>
+        <v>42966.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42997.8125</v>
+        <v>42966.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42998.3125</v>
+        <v>42967.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42998.8125</v>
+        <v>42967.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42999.3125</v>
+        <v>42968.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42999.8125</v>
+        <v>42968.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43000.3125</v>
+        <v>42969.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43000.8125</v>
+        <v>42969.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43001.3125</v>
+        <v>42970.3125</v>
       </c>
       <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
         <v>27</v>
-      </c>
-      <c r="C46" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43001.8125</v>
+        <v>42970.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43002.3125</v>
+        <v>42971.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43002.8125</v>
+        <v>42971.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43003.3125</v>
+        <v>42972.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43003.8125</v>
+        <v>42972.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43004.3125</v>
+        <v>42973.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43004.8125</v>
+        <v>42973.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43005.3125</v>
+        <v>42974.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43005.8125</v>
+        <v>42974.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43006.3125</v>
+        <v>42975.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43006.8125</v>
+        <v>42975.8125</v>
       </c>
       <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
         <v>26</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43007.3125</v>
+        <v>42976.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43007.8125</v>
+        <v>42976.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43008.3125</v>
+        <v>42977.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43008.8125</v>
+        <v>42977.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>42978.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>42978.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -12,18 +12,19 @@
     <sheet name="Oct2017" sheetId="3" r:id="rId3"/>
     <sheet name="Apr2017" sheetId="4" r:id="rId4"/>
     <sheet name="Nov2017" sheetId="5" r:id="rId5"/>
-    <sheet name="Jun2017" sheetId="6" r:id="rId6"/>
-    <sheet name="May2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Mar2017" sheetId="8" r:id="rId8"/>
-    <sheet name="Aug2017" sheetId="9" r:id="rId9"/>
-    <sheet name="Sep2017" sheetId="10" r:id="rId10"/>
+    <sheet name="Dec2017" sheetId="6" r:id="rId6"/>
+    <sheet name="Jun2017" sheetId="7" r:id="rId7"/>
+    <sheet name="May2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Mar2017" sheetId="9" r:id="rId9"/>
+    <sheet name="Aug2017" sheetId="10" r:id="rId10"/>
+    <sheet name="Sep2017" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="53">
   <si>
     <t>ts</t>
   </si>
@@ -173,6 +174,12 @@
   </si>
   <si>
     <t>Web</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Camille</t>
   </si>
   <si>
     <t>JunSat</t>
@@ -1246,6 +1253,715 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42948.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42948.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42949.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>42949.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42950.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42950.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42951.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42951.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42952.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42952.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42953.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42953.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42954.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42954.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42955.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42955.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42956.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42956.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42957.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42957.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42958.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42958.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42959.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42959.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42960.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42960.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>42961.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>42961.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>42962.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>42962.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>42963.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>42963.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>42964.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>42964.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>42965.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42965.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>42966.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42966.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>42967.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>42967.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42968.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42968.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>42969.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>42969.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>42970.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>42970.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>42971.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>42971.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>42972.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>42972.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>42973.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>42973.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>42974.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>42974.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>42975.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>42975.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>42976.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>42976.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>42977.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>42977.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>42978.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>42978.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4659,6 +5375,715 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>43070.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>43070.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>43071.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>43071.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>43072.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>43072.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>43073.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>43073.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>43074.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>43074.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>43075.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>43075.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>43076.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>43076.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>43077.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>43077.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>43078.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>43078.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>43079.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>43079.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>43080.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>43080.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>43081.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>43081.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>43082.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>43082.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>43083.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>43083.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>43084.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>43084.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>43085.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>43085.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>43086.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>43086.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>43087.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>43087.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>43088.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>43088.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>43089.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>43089.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>43090.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>43090.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>43091.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>43091.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>43092.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>43092.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>43093.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>43093.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>43094.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>43094.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>43095.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>43095.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>43096.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>43096.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>43097.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>43097.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>43098.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>43098.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>43099.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>43099.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>43100.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>43100.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5337,715 +6762,6 @@
       </c>
       <c r="C61" t="s">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>42856.3125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>42856.8125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>42857.3125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>42857.8125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>42858.3125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>42858.8125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>42859.3125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>42859.8125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>42860.3125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>42860.8125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>42861.3125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>42861.8125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>42862.3125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>42862.8125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>42863.3125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>42863.8125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>42864.3125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>42864.8125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>42865.3125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>42865.8125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>42866.3125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>42866.8125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>42867.3125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>42867.8125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>42868.3125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>42868.8125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>42869.3125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>42869.8125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>42870.3125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>42870.8125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>42871.3125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>42871.8125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>42872.3125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>42872.8125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>42873.3125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>42873.8125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>42874.3125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>42874.8125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>42875.3125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>42875.8125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>42876.3125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>42876.8125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>42877.3125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>42877.8125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>42878.3125</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>42878.8125</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>42879.3125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>42879.8125</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
-        <v>42880.3125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>42880.8125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>42881.3125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>42881.8125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
-        <v>42882.3125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
-        <v>42882.8125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
-        <v>42883.3125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
-        <v>42883.8125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
-        <v>42884.3125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
-        <v>42884.8125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
-        <v>42885.3125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
-        <v>42885.8125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>42886.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>42886.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6077,549 +6793,549 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42795.3125</v>
+        <v>42856.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42795.8125</v>
+        <v>42856.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42796.3125</v>
+        <v>42857.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42796.8125</v>
+        <v>42857.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42797.3125</v>
+        <v>42858.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42797.8125</v>
+        <v>42858.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42798.3125</v>
+        <v>42859.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42798.8125</v>
+        <v>42859.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42799.3125</v>
+        <v>42860.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42799.8125</v>
+        <v>42860.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42800.3125</v>
+        <v>42861.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42800.8125</v>
+        <v>42861.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42801.3125</v>
+        <v>42862.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42801.8125</v>
+        <v>42862.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42802.3125</v>
+        <v>42863.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42802.8125</v>
+        <v>42863.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42803.3125</v>
+        <v>42864.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42803.8125</v>
+        <v>42864.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42804.3125</v>
+        <v>42865.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42804.8125</v>
+        <v>42865.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42805.3125</v>
+        <v>42866.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42805.8125</v>
+        <v>42866.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42806.3125</v>
+        <v>42867.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42806.8125</v>
+        <v>42867.8125</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42807.3125</v>
+        <v>42868.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42807.8125</v>
+        <v>42868.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42808.3125</v>
+        <v>42869.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42808.8125</v>
+        <v>42869.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42809.3125</v>
+        <v>42870.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42809.8125</v>
+        <v>42870.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42810.3125</v>
+        <v>42871.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42810.8125</v>
+        <v>42871.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42811.3125</v>
+        <v>42872.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42811.8125</v>
+        <v>42872.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42812.3125</v>
+        <v>42873.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42812.8125</v>
+        <v>42873.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42813.3125</v>
+        <v>42874.3125</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42813.8125</v>
+        <v>42874.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42814.3125</v>
+        <v>42875.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42814.8125</v>
+        <v>42875.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42815.3125</v>
+        <v>42876.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42815.8125</v>
+        <v>42876.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42816.3125</v>
+        <v>42877.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42816.8125</v>
+        <v>42877.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42817.3125</v>
+        <v>42878.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42817.8125</v>
+        <v>42878.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42818.3125</v>
+        <v>42879.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42818.8125</v>
+        <v>42879.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42819.3125</v>
+        <v>42880.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42819.8125</v>
+        <v>42880.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -6627,134 +7343,134 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42820.3125</v>
+        <v>42881.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42820.8125</v>
+        <v>42881.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42821.3125</v>
+        <v>42882.3125</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42821.8125</v>
+        <v>42882.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42822.3125</v>
+        <v>42883.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42822.8125</v>
+        <v>42883.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42823.3125</v>
+        <v>42884.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42823.8125</v>
+        <v>42884.8125</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42824.3125</v>
+        <v>42885.3125</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42824.8125</v>
+        <v>42885.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42825.3125</v>
+        <v>42886.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42825.8125</v>
+        <v>42886.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6786,87 +7502,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42948.3125</v>
+        <v>42795.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42948.8125</v>
+        <v>42795.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42949.3125</v>
+        <v>42796.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42949.8125</v>
+        <v>42796.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42950.3125</v>
+        <v>42797.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42950.8125</v>
+        <v>42797.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42951.3125</v>
+        <v>42798.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42951.8125</v>
+        <v>42798.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -6874,596 +7590,596 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42952.3125</v>
+        <v>42799.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42952.8125</v>
+        <v>42799.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42953.3125</v>
+        <v>42800.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42953.8125</v>
+        <v>42800.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42954.3125</v>
+        <v>42801.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42954.8125</v>
+        <v>42801.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42955.3125</v>
+        <v>42802.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42955.8125</v>
+        <v>42802.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42956.3125</v>
+        <v>42803.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42956.8125</v>
+        <v>42803.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42957.3125</v>
+        <v>42804.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42957.8125</v>
+        <v>42804.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42958.3125</v>
+        <v>42805.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42958.8125</v>
+        <v>42805.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42959.3125</v>
+        <v>42806.3125</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42959.8125</v>
+        <v>42806.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42960.3125</v>
+        <v>42807.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42960.8125</v>
+        <v>42807.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42961.3125</v>
+        <v>42808.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42961.8125</v>
+        <v>42808.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42962.3125</v>
+        <v>42809.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42962.8125</v>
+        <v>42809.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42963.3125</v>
+        <v>42810.3125</v>
       </c>
       <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
         <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42963.8125</v>
+        <v>42810.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42964.3125</v>
+        <v>42811.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42964.8125</v>
+        <v>42811.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42965.3125</v>
+        <v>42812.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42965.8125</v>
+        <v>42812.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42966.3125</v>
+        <v>42813.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42966.8125</v>
+        <v>42813.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42967.3125</v>
+        <v>42814.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42967.8125</v>
+        <v>42814.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42968.3125</v>
+        <v>42815.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42968.8125</v>
+        <v>42815.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42969.3125</v>
+        <v>42816.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42969.8125</v>
+        <v>42816.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42970.3125</v>
+        <v>42817.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42970.8125</v>
+        <v>42817.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42971.3125</v>
+        <v>42818.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42971.8125</v>
+        <v>42818.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42972.3125</v>
+        <v>42819.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42972.8125</v>
+        <v>42819.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42973.3125</v>
+        <v>42820.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42973.8125</v>
+        <v>42820.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42974.3125</v>
+        <v>42821.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42974.8125</v>
+        <v>42821.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42975.3125</v>
+        <v>42822.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42975.8125</v>
+        <v>42822.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42976.3125</v>
+        <v>42823.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42976.8125</v>
+        <v>42823.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42977.3125</v>
+        <v>42824.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42977.8125</v>
+        <v>42824.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42978.3125</v>
+        <v>42825.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42978.8125</v>
+        <v>42825.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -14,22 +14,23 @@
     <sheet name="Feb2017" sheetId="5" r:id="rId5"/>
     <sheet name="Oct2017" sheetId="6" r:id="rId6"/>
     <sheet name="Apr2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Nov2017" sheetId="8" r:id="rId8"/>
-    <sheet name="Dec2017" sheetId="9" r:id="rId9"/>
-    <sheet name="Jun2017" sheetId="10" r:id="rId10"/>
-    <sheet name="May2017" sheetId="11" r:id="rId11"/>
-    <sheet name="Mar2018" sheetId="12" r:id="rId12"/>
-    <sheet name="Jan2018" sheetId="13" r:id="rId13"/>
-    <sheet name="Mar2017" sheetId="14" r:id="rId14"/>
-    <sheet name="Aug2017" sheetId="15" r:id="rId15"/>
-    <sheet name="Sep2017" sheetId="16" r:id="rId16"/>
+    <sheet name="Jun2018" sheetId="8" r:id="rId8"/>
+    <sheet name="Nov2017" sheetId="9" r:id="rId9"/>
+    <sheet name="Dec2017" sheetId="10" r:id="rId10"/>
+    <sheet name="Jun2017" sheetId="11" r:id="rId11"/>
+    <sheet name="May2017" sheetId="12" r:id="rId12"/>
+    <sheet name="Mar2018" sheetId="13" r:id="rId13"/>
+    <sheet name="Jan2018" sheetId="14" r:id="rId14"/>
+    <sheet name="Mar2017" sheetId="15" r:id="rId15"/>
+    <sheet name="Aug2017" sheetId="16" r:id="rId16"/>
+    <sheet name="Sep2017" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="62">
   <si>
     <t>ts</t>
   </si>
@@ -1632,6 +1633,715 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>43070.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>43070.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>43071.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>43071.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>43072.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>43072.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>43073.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>43073.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>43074.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>43074.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>43075.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>43075.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>43076.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>43076.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>43077.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>43077.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>43078.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>43078.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>43079.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>43079.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>43080.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>43080.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>43081.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>43081.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>43082.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>43082.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>43083.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>43083.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>43084.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>43084.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>43085.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>43085.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>43086.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>43086.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>43087.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>43087.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>43088.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>43088.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>43089.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>43089.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>43090.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>43090.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>43091.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>43091.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>43092.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>43092.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>43093.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>43093.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>43094.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>43094.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>43095.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>43095.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>43096.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>43096.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>43097.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>43097.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>43098.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>43098.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>43099.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>43099.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>43100.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>43100.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2317,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C63"/>
   <sheetViews>
@@ -3026,7 +3736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F63"/>
   <sheetViews>
@@ -4109,715 +4819,6 @@
       </c>
       <c r="F63" t="s">
         <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>43101.3125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>43101.8125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>43102.3125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>43102.8125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>43103.3125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>43103.8125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>43104.3125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>43104.8125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>43105.3125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>43105.8125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>43106.3125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>43106.8125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>43107.3125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>43107.8125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>43108.3125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>43108.8125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>43109.3125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>43109.8125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>43110.3125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>43110.8125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>43111.3125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>43111.8125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>43112.3125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>43112.8125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>43113.3125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>43113.8125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>43114.3125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>43114.8125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>43115.3125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>43115.8125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>43116.3125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>43116.8125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>43117.3125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>43117.8125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>43118.3125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>43118.8125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>43119.3125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>43119.8125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>43120.3125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>43120.8125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>43121.3125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>43121.8125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>43122.3125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>43122.8125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>43123.3125</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>43123.8125</v>
-      </c>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>43124.3125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>43124.8125</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
-        <v>43125.3125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>43125.8125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>43126.3125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>43126.8125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
-        <v>43127.3125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
-        <v>43127.8125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
-        <v>43128.3125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
-        <v>43128.8125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
-        <v>43129.3125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
-        <v>43129.8125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
-        <v>43130.3125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
-        <v>43130.8125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>43131.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>43131.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4849,142 +4850,142 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42795.3125</v>
+        <v>43101.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42795.8125</v>
+        <v>43101.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42796.3125</v>
+        <v>43102.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42796.8125</v>
+        <v>43102.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42797.3125</v>
+        <v>43103.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42797.8125</v>
+        <v>43103.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42798.3125</v>
+        <v>43104.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42798.8125</v>
+        <v>43104.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42799.3125</v>
+        <v>43105.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42799.8125</v>
+        <v>43105.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42800.3125</v>
+        <v>43106.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42800.8125</v>
+        <v>43106.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42801.3125</v>
+        <v>43107.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -4992,439 +4993,439 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42801.8125</v>
+        <v>43107.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42802.3125</v>
+        <v>43108.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42802.8125</v>
+        <v>43108.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42803.3125</v>
+        <v>43109.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42803.8125</v>
+        <v>43109.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42804.3125</v>
+        <v>43110.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42804.8125</v>
+        <v>43110.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42805.3125</v>
+        <v>43111.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42805.8125</v>
+        <v>43111.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42806.3125</v>
+        <v>43112.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42806.8125</v>
+        <v>43112.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42807.3125</v>
+        <v>43113.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42807.8125</v>
+        <v>43113.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42808.3125</v>
+        <v>43114.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42808.8125</v>
+        <v>43114.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42809.3125</v>
+        <v>43115.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42809.8125</v>
+        <v>43115.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42810.3125</v>
+        <v>43116.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42810.8125</v>
+        <v>43116.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42811.3125</v>
+        <v>43117.3125</v>
       </c>
       <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
         <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42811.8125</v>
+        <v>43117.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42812.3125</v>
+        <v>43118.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42812.8125</v>
+        <v>43118.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42813.3125</v>
+        <v>43119.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42813.8125</v>
+        <v>43119.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42814.3125</v>
+        <v>43120.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42814.8125</v>
+        <v>43120.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42815.3125</v>
+        <v>43121.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42815.8125</v>
+        <v>43121.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42816.3125</v>
+        <v>43122.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42816.8125</v>
+        <v>43122.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42817.3125</v>
+        <v>43123.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42817.8125</v>
+        <v>43123.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42818.3125</v>
+        <v>43124.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42818.8125</v>
+        <v>43124.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42819.3125</v>
+        <v>43125.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42819.8125</v>
+        <v>43125.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42820.3125</v>
+        <v>43126.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42820.8125</v>
+        <v>43126.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42821.3125</v>
+        <v>43127.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
@@ -5432,65 +5433,65 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42821.8125</v>
+        <v>43127.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42822.3125</v>
+        <v>43128.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42822.8125</v>
+        <v>43128.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42823.3125</v>
+        <v>43129.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42823.8125</v>
+        <v>43129.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42824.3125</v>
+        <v>43130.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -5498,35 +5499,35 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42824.8125</v>
+        <v>43130.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42825.3125</v>
+        <v>43131.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42825.8125</v>
+        <v>43131.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5558,87 +5559,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42948.3125</v>
+        <v>42795.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42948.8125</v>
+        <v>42795.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42949.3125</v>
+        <v>42796.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42949.8125</v>
+        <v>42796.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42950.3125</v>
+        <v>42797.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42950.8125</v>
+        <v>42797.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42951.3125</v>
+        <v>42798.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42951.8125</v>
+        <v>42798.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -5646,596 +5647,596 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42952.3125</v>
+        <v>42799.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42952.8125</v>
+        <v>42799.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42953.3125</v>
+        <v>42800.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42953.8125</v>
+        <v>42800.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42954.3125</v>
+        <v>42801.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42954.8125</v>
+        <v>42801.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42955.3125</v>
+        <v>42802.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42955.8125</v>
+        <v>42802.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42956.3125</v>
+        <v>42803.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42956.8125</v>
+        <v>42803.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42957.3125</v>
+        <v>42804.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42957.8125</v>
+        <v>42804.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42958.3125</v>
+        <v>42805.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42958.8125</v>
+        <v>42805.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42959.3125</v>
+        <v>42806.3125</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42959.8125</v>
+        <v>42806.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42960.3125</v>
+        <v>42807.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42960.8125</v>
+        <v>42807.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42961.3125</v>
+        <v>42808.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42961.8125</v>
+        <v>42808.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42962.3125</v>
+        <v>42809.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42962.8125</v>
+        <v>42809.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42963.3125</v>
+        <v>42810.3125</v>
       </c>
       <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
         <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42963.8125</v>
+        <v>42810.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42964.3125</v>
+        <v>42811.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42964.8125</v>
+        <v>42811.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42965.3125</v>
+        <v>42812.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42965.8125</v>
+        <v>42812.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42966.3125</v>
+        <v>42813.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42966.8125</v>
+        <v>42813.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42967.3125</v>
+        <v>42814.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42967.8125</v>
+        <v>42814.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42968.3125</v>
+        <v>42815.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42968.8125</v>
+        <v>42815.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42969.3125</v>
+        <v>42816.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42969.8125</v>
+        <v>42816.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42970.3125</v>
+        <v>42817.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42970.8125</v>
+        <v>42817.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42971.3125</v>
+        <v>42818.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42971.8125</v>
+        <v>42818.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42972.3125</v>
+        <v>42819.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42972.8125</v>
+        <v>42819.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42973.3125</v>
+        <v>42820.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42973.8125</v>
+        <v>42820.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42974.3125</v>
+        <v>42821.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42974.8125</v>
+        <v>42821.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42975.3125</v>
+        <v>42822.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42975.8125</v>
+        <v>42822.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42976.3125</v>
+        <v>42823.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42976.8125</v>
+        <v>42823.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42977.3125</v>
+        <v>42824.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42977.8125</v>
+        <v>42824.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42978.3125</v>
+        <v>42825.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42978.8125</v>
+        <v>42825.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6244,6 +6245,715 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42948.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42948.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42949.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>42949.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42950.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42950.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42951.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42951.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42952.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42952.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42953.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42953.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42954.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42954.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42955.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42955.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42956.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42956.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42957.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42957.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42958.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42958.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42959.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42959.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42960.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42960.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>42961.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>42961.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>42962.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>42962.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>42963.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>42963.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>42964.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>42964.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>42965.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42965.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>42966.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42966.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>42967.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>42967.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42968.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42968.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>42969.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>42969.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>42970.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>42970.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>42971.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>42971.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>42972.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>42972.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>42973.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>42973.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>42974.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>42974.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>42975.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>42975.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>42976.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>42976.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>42977.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>42977.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>42978.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>42978.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
@@ -11054,32 +11764,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>43040.3125</v>
+        <v>43252.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>43040.8125</v>
+        <v>43252.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>43041.3125</v>
+        <v>43253.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -11087,54 +11797,54 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>43041.8125</v>
+        <v>43253.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>43042.3125</v>
+        <v>43254.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>43042.8125</v>
+        <v>43254.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>43043.3125</v>
+        <v>43255.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>43043.8125</v>
+        <v>43255.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -11142,307 +11852,307 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>43044.3125</v>
+        <v>43256.3125</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43044.8125</v>
+        <v>43256.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>43045.3125</v>
+        <v>43257.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>43045.8125</v>
+        <v>43257.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>43046.3125</v>
+        <v>43258.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>43046.8125</v>
+        <v>43258.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>43047.3125</v>
+        <v>43259.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>43047.8125</v>
+        <v>43259.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43048.3125</v>
+        <v>43260.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>43048.8125</v>
+        <v>43260.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>43049.3125</v>
+        <v>43261.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43049.8125</v>
+        <v>43261.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43050.3125</v>
+        <v>43262.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>43050.8125</v>
+        <v>43262.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>43051.3125</v>
+        <v>43263.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43051.8125</v>
+        <v>43263.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43052.3125</v>
+        <v>43264.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>43052.8125</v>
+        <v>43264.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>43053.3125</v>
+        <v>43265.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43053.8125</v>
+        <v>43265.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43054.3125</v>
+        <v>43266.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43054.8125</v>
+        <v>43266.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43055.3125</v>
+        <v>43267.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43055.8125</v>
+        <v>43267.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>43056.3125</v>
+        <v>43268.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>43056.8125</v>
+        <v>43268.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43057.3125</v>
+        <v>43269.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>43057.8125</v>
+        <v>43269.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -11450,266 +12160,266 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>43058.3125</v>
+        <v>43270.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>43058.8125</v>
+        <v>43270.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>43059.3125</v>
+        <v>43271.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>43059.8125</v>
+        <v>43271.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>43060.3125</v>
+        <v>43272.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>43060.8125</v>
+        <v>43272.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43061.3125</v>
+        <v>43273.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43061.8125</v>
+        <v>43273.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43062.3125</v>
+        <v>43274.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43062.8125</v>
+        <v>43274.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43063.3125</v>
+        <v>43275.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43063.8125</v>
+        <v>43275.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43064.3125</v>
+        <v>43276.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43064.8125</v>
+        <v>43276.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43065.3125</v>
+        <v>43277.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43065.8125</v>
+        <v>43277.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43066.3125</v>
+        <v>43278.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43066.8125</v>
+        <v>43278.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43067.3125</v>
+        <v>43279.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43067.8125</v>
+        <v>43279.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43068.3125</v>
+        <v>43280.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43068.8125</v>
+        <v>43280.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43069.3125</v>
+        <v>43281.3125</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43069.8125</v>
+        <v>43281.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -11719,7 +12429,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11741,87 +12451,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>43070.3125</v>
+        <v>43040.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>43070.8125</v>
+        <v>43040.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>43071.3125</v>
+        <v>43041.3125</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>43071.8125</v>
+        <v>43041.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>43072.3125</v>
+        <v>43042.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>43072.8125</v>
+        <v>43042.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>43073.3125</v>
+        <v>43043.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>43073.8125</v>
+        <v>43043.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -11829,241 +12539,241 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>43074.3125</v>
+        <v>43044.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43074.8125</v>
+        <v>43044.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>43075.3125</v>
+        <v>43045.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>43075.8125</v>
+        <v>43045.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>43076.3125</v>
+        <v>43046.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>43076.8125</v>
+        <v>43046.8125</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>43077.3125</v>
+        <v>43047.3125</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>43077.8125</v>
+        <v>43047.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43078.3125</v>
+        <v>43048.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>43078.8125</v>
+        <v>43048.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>43079.3125</v>
+        <v>43049.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43079.8125</v>
+        <v>43049.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43080.3125</v>
+        <v>43050.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>43080.8125</v>
+        <v>43050.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>43081.3125</v>
+        <v>43051.3125</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43081.8125</v>
+        <v>43051.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43082.3125</v>
+        <v>43052.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>43082.8125</v>
+        <v>43052.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>43083.3125</v>
+        <v>43053.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43083.8125</v>
+        <v>43053.8125</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43084.3125</v>
+        <v>43054.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43084.8125</v>
+        <v>43054.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -12071,186 +12781,186 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43085.3125</v>
+        <v>43055.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43085.8125</v>
+        <v>43055.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>43086.3125</v>
+        <v>43056.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>43086.8125</v>
+        <v>43056.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43087.3125</v>
+        <v>43057.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>43087.8125</v>
+        <v>43057.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>43088.3125</v>
+        <v>43058.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>43088.8125</v>
+        <v>43058.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>43089.3125</v>
+        <v>43059.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>43089.8125</v>
+        <v>43059.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>43090.3125</v>
+        <v>43060.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>43090.8125</v>
+        <v>43060.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43091.3125</v>
+        <v>43061.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43091.8125</v>
+        <v>43061.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43092.3125</v>
+        <v>43062.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43092.8125</v>
+        <v>43062.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43093.3125</v>
+        <v>43063.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -12258,167 +12968,145 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43093.8125</v>
+        <v>43063.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43094.3125</v>
+        <v>43064.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43094.8125</v>
+        <v>43064.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43095.3125</v>
+        <v>43065.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43095.8125</v>
+        <v>43065.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43096.3125</v>
+        <v>43066.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43096.8125</v>
+        <v>43066.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43097.3125</v>
+        <v>43067.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43097.8125</v>
+        <v>43067.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43098.3125</v>
+        <v>43068.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43098.8125</v>
+        <v>43068.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43099.3125</v>
+        <v>43069.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43099.8125</v>
+        <v>43069.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>43100.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>43100.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -13,24 +13,25 @@
     <sheet name="May2018" sheetId="4" r:id="rId4"/>
     <sheet name="Feb2017" sheetId="5" r:id="rId5"/>
     <sheet name="Oct2017" sheetId="6" r:id="rId6"/>
-    <sheet name="Apr2017" sheetId="7" r:id="rId7"/>
-    <sheet name="Jun2018" sheetId="8" r:id="rId8"/>
-    <sheet name="Nov2017" sheetId="9" r:id="rId9"/>
-    <sheet name="Dec2017" sheetId="10" r:id="rId10"/>
-    <sheet name="Jun2017" sheetId="11" r:id="rId11"/>
-    <sheet name="May2017" sheetId="12" r:id="rId12"/>
-    <sheet name="Mar2018" sheetId="13" r:id="rId13"/>
-    <sheet name="Jan2018" sheetId="14" r:id="rId14"/>
-    <sheet name="Mar2017" sheetId="15" r:id="rId15"/>
-    <sheet name="Aug2017" sheetId="16" r:id="rId16"/>
-    <sheet name="Sep2017" sheetId="17" r:id="rId17"/>
+    <sheet name="Sep2018" sheetId="7" r:id="rId7"/>
+    <sheet name="Apr2017" sheetId="8" r:id="rId8"/>
+    <sheet name="Jun2018" sheetId="9" r:id="rId9"/>
+    <sheet name="Nov2017" sheetId="10" r:id="rId10"/>
+    <sheet name="Dec2017" sheetId="11" r:id="rId11"/>
+    <sheet name="Jun2017" sheetId="12" r:id="rId12"/>
+    <sheet name="May2017" sheetId="13" r:id="rId13"/>
+    <sheet name="Mar2018" sheetId="14" r:id="rId14"/>
+    <sheet name="Jan2018" sheetId="15" r:id="rId15"/>
+    <sheet name="Mar2017" sheetId="16" r:id="rId16"/>
+    <sheet name="Aug2017" sheetId="17" r:id="rId17"/>
+    <sheet name="Sep2017" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="64">
   <si>
     <t>ts</t>
   </si>
@@ -213,6 +214,12 @@
   </si>
   <si>
     <t>TinB</t>
+  </si>
+  <si>
+    <t>Nichole</t>
+  </si>
+  <si>
+    <t>Sonny</t>
   </si>
   <si>
     <t>JunSat</t>
@@ -1633,6 +1640,693 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>43040.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>43040.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>43041.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>43041.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>43042.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>43042.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>43043.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>43043.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>43044.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>43044.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>43045.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>43045.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>43046.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>43046.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>43047.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>43047.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>43048.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>43048.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>43049.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>43049.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>43050.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>43050.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>43051.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>43051.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>43052.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>43052.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>43053.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>43053.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>43054.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>43054.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>43055.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>43055.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>43056.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>43056.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>43057.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>43057.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>43058.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>43058.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>43059.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>43059.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>43060.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>43060.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>43061.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>43061.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>43062.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>43062.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>43063.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>43063.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>43064.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>43064.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>43065.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>43065.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>43066.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>43066.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>43067.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>43067.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>43068.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>43068.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>43069.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>43069.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2340,7 +3034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
@@ -3027,7 +3721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C63"/>
   <sheetViews>
@@ -3585,7 +4279,7 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3736,7 +4430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F63"/>
   <sheetViews>
@@ -4819,715 +5513,6 @@
       </c>
       <c r="F63" t="s">
         <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>43101.3125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>43101.8125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>43102.3125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>43102.8125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>43103.3125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>43103.8125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>43104.3125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>43104.8125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>43105.3125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>43105.8125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>43106.3125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>43106.8125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>43107.3125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>43107.8125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>43108.3125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>43108.8125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>43109.3125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>43109.8125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>43110.3125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>43110.8125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>43111.3125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>43111.8125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>43112.3125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>43112.8125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>43113.3125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>43113.8125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>43114.3125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>43114.8125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>43115.3125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>43115.8125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>43116.3125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>43116.8125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>43117.3125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>43117.8125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>43118.3125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>43118.8125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>43119.3125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>43119.8125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>43120.3125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>43120.8125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>43121.3125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>43121.8125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>43122.3125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>43122.8125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>43123.3125</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>43123.8125</v>
-      </c>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>43124.3125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>43124.8125</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
-        <v>43125.3125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>43125.8125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>43126.3125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>43126.8125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
-        <v>43127.3125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
-        <v>43127.8125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
-        <v>43128.3125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
-        <v>43128.8125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
-        <v>43129.3125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
-        <v>43129.8125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
-        <v>43130.3125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
-        <v>43130.8125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>43131.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>43131.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5559,142 +5544,142 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42795.3125</v>
+        <v>43101.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42795.8125</v>
+        <v>43101.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42796.3125</v>
+        <v>43102.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42796.8125</v>
+        <v>43102.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42797.3125</v>
+        <v>43103.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42797.8125</v>
+        <v>43103.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42798.3125</v>
+        <v>43104.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42798.8125</v>
+        <v>43104.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42799.3125</v>
+        <v>43105.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42799.8125</v>
+        <v>43105.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42800.3125</v>
+        <v>43106.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42800.8125</v>
+        <v>43106.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42801.3125</v>
+        <v>43107.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -5702,439 +5687,439 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42801.8125</v>
+        <v>43107.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42802.3125</v>
+        <v>43108.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42802.8125</v>
+        <v>43108.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42803.3125</v>
+        <v>43109.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42803.8125</v>
+        <v>43109.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42804.3125</v>
+        <v>43110.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42804.8125</v>
+        <v>43110.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42805.3125</v>
+        <v>43111.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42805.8125</v>
+        <v>43111.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42806.3125</v>
+        <v>43112.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42806.8125</v>
+        <v>43112.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42807.3125</v>
+        <v>43113.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42807.8125</v>
+        <v>43113.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42808.3125</v>
+        <v>43114.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42808.8125</v>
+        <v>43114.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42809.3125</v>
+        <v>43115.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42809.8125</v>
+        <v>43115.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42810.3125</v>
+        <v>43116.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42810.8125</v>
+        <v>43116.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42811.3125</v>
+        <v>43117.3125</v>
       </c>
       <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
         <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42811.8125</v>
+        <v>43117.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42812.3125</v>
+        <v>43118.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42812.8125</v>
+        <v>43118.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42813.3125</v>
+        <v>43119.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42813.8125</v>
+        <v>43119.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42814.3125</v>
+        <v>43120.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42814.8125</v>
+        <v>43120.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42815.3125</v>
+        <v>43121.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42815.8125</v>
+        <v>43121.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42816.3125</v>
+        <v>43122.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42816.8125</v>
+        <v>43122.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42817.3125</v>
+        <v>43123.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42817.8125</v>
+        <v>43123.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42818.3125</v>
+        <v>43124.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42818.8125</v>
+        <v>43124.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42819.3125</v>
+        <v>43125.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42819.8125</v>
+        <v>43125.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42820.3125</v>
+        <v>43126.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42820.8125</v>
+        <v>43126.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42821.3125</v>
+        <v>43127.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
@@ -6142,65 +6127,65 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42821.8125</v>
+        <v>43127.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42822.3125</v>
+        <v>43128.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42822.8125</v>
+        <v>43128.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42823.3125</v>
+        <v>43129.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42823.8125</v>
+        <v>43129.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42824.3125</v>
+        <v>43130.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -6208,35 +6193,35 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42824.8125</v>
+        <v>43130.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42825.3125</v>
+        <v>43131.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42825.8125</v>
+        <v>43131.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6268,87 +6253,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42948.3125</v>
+        <v>42795.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42948.8125</v>
+        <v>42795.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42949.3125</v>
+        <v>42796.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42949.8125</v>
+        <v>42796.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42950.3125</v>
+        <v>42797.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42950.8125</v>
+        <v>42797.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42951.3125</v>
+        <v>42798.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42951.8125</v>
+        <v>42798.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -6356,596 +6341,596 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42952.3125</v>
+        <v>42799.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42952.8125</v>
+        <v>42799.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42953.3125</v>
+        <v>42800.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42953.8125</v>
+        <v>42800.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42954.3125</v>
+        <v>42801.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42954.8125</v>
+        <v>42801.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42955.3125</v>
+        <v>42802.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42955.8125</v>
+        <v>42802.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42956.3125</v>
+        <v>42803.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42956.8125</v>
+        <v>42803.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42957.3125</v>
+        <v>42804.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42957.8125</v>
+        <v>42804.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42958.3125</v>
+        <v>42805.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42958.8125</v>
+        <v>42805.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42959.3125</v>
+        <v>42806.3125</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42959.8125</v>
+        <v>42806.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42960.3125</v>
+        <v>42807.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42960.8125</v>
+        <v>42807.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42961.3125</v>
+        <v>42808.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42961.8125</v>
+        <v>42808.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42962.3125</v>
+        <v>42809.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42962.8125</v>
+        <v>42809.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42963.3125</v>
+        <v>42810.3125</v>
       </c>
       <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
         <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42963.8125</v>
+        <v>42810.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42964.3125</v>
+        <v>42811.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42964.8125</v>
+        <v>42811.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42965.3125</v>
+        <v>42812.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42965.8125</v>
+        <v>42812.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42966.3125</v>
+        <v>42813.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42966.8125</v>
+        <v>42813.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42967.3125</v>
+        <v>42814.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42967.8125</v>
+        <v>42814.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42968.3125</v>
+        <v>42815.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42968.8125</v>
+        <v>42815.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42969.3125</v>
+        <v>42816.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42969.8125</v>
+        <v>42816.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42970.3125</v>
+        <v>42817.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42970.8125</v>
+        <v>42817.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42971.3125</v>
+        <v>42818.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42971.8125</v>
+        <v>42818.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42972.3125</v>
+        <v>42819.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42972.8125</v>
+        <v>42819.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42973.3125</v>
+        <v>42820.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42973.8125</v>
+        <v>42820.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42974.3125</v>
+        <v>42821.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42974.8125</v>
+        <v>42821.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42975.3125</v>
+        <v>42822.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42975.8125</v>
+        <v>42822.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42976.3125</v>
+        <v>42823.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42976.8125</v>
+        <v>42823.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42977.3125</v>
+        <v>42824.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42977.8125</v>
+        <v>42824.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42978.3125</v>
+        <v>42825.3125</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42978.8125</v>
+        <v>42825.8125</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6954,6 +6939,715 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>42948.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>42948.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>42949.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>42949.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>42950.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>42950.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>42951.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>42951.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>42952.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>42952.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>42953.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>42953.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>42954.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>42954.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>42955.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>42955.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>42956.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>42956.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>42957.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>42957.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>42958.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>42958.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>42959.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>42959.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>42960.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>42960.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>42961.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>42961.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>42962.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>42962.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>42963.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>42963.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>42964.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>42964.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>42965.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>42965.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>42966.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>42966.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>42967.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>42967.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>42968.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42968.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>42969.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>42969.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>42970.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>42970.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>42971.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>42971.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>42972.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>42972.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>42973.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>42973.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>42974.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>42974.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>42975.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>42975.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>42976.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>42976.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>42977.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>42977.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>42978.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>42978.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
@@ -11077,230 +11771,230 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42826.3125</v>
+        <v>43344.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>42826.8125</v>
+        <v>43344.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42827.3125</v>
+        <v>43345.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42827.8125</v>
+        <v>43345.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>42828.3125</v>
+        <v>43346.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42828.8125</v>
+        <v>43346.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42829.3125</v>
+        <v>43347.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>42829.8125</v>
+        <v>43347.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42830.3125</v>
+        <v>43348.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42830.8125</v>
+        <v>43348.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42831.3125</v>
+        <v>43349.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42831.8125</v>
+        <v>43349.8125</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42832.3125</v>
+        <v>43350.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42832.8125</v>
+        <v>43350.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42833.3125</v>
+        <v>43351.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42833.8125</v>
+        <v>43351.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42834.3125</v>
+        <v>43352.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42834.8125</v>
+        <v>43352.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42835.3125</v>
+        <v>43353.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42835.8125</v>
+        <v>43353.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42836.3125</v>
+        <v>43354.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -11308,431 +12002,431 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42836.8125</v>
+        <v>43354.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42837.3125</v>
+        <v>43355.3125</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42837.8125</v>
+        <v>43355.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42838.3125</v>
+        <v>43356.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42838.8125</v>
+        <v>43356.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42839.3125</v>
+        <v>43357.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42839.8125</v>
+        <v>43357.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42840.3125</v>
+        <v>43358.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42840.8125</v>
+        <v>43358.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42841.3125</v>
+        <v>43359.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42841.8125</v>
+        <v>43359.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42842.3125</v>
+        <v>43360.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42842.8125</v>
+        <v>43360.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42843.3125</v>
+        <v>43361.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42843.8125</v>
+        <v>43361.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42844.3125</v>
+        <v>43362.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42844.8125</v>
+        <v>43362.8125</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42845.3125</v>
+        <v>43363.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42845.8125</v>
+        <v>43363.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42846.3125</v>
+        <v>43364.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42846.8125</v>
+        <v>43364.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42847.3125</v>
+        <v>43365.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42847.8125</v>
+        <v>43365.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42848.3125</v>
+        <v>43366.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42848.8125</v>
+        <v>43366.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42849.3125</v>
+        <v>43367.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42849.8125</v>
+        <v>43367.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42850.3125</v>
+        <v>43368.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42850.8125</v>
+        <v>43368.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42851.3125</v>
+        <v>43369.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42851.8125</v>
+        <v>43369.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42852.3125</v>
+        <v>43370.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42852.8125</v>
+        <v>43370.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42853.3125</v>
+        <v>43371.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42853.8125</v>
+        <v>43371.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42854.3125</v>
+        <v>43372.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42854.8125</v>
+        <v>43372.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42855.3125</v>
+        <v>43373.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42855.8125</v>
+        <v>43373.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -11764,205 +12458,205 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>43252.3125</v>
+        <v>42826.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>43252.8125</v>
+        <v>42826.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>43253.3125</v>
+        <v>42827.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>43253.8125</v>
+        <v>42827.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>43254.3125</v>
+        <v>42828.3125</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>43254.8125</v>
+        <v>42828.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>43255.3125</v>
+        <v>42829.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>43255.8125</v>
+        <v>42829.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>43256.3125</v>
+        <v>42830.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43256.8125</v>
+        <v>42830.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>43257.3125</v>
+        <v>42831.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>43257.8125</v>
+        <v>42831.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>43258.3125</v>
+        <v>42832.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>43258.8125</v>
+        <v>42832.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>43259.3125</v>
+        <v>42833.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>43259.8125</v>
+        <v>42833.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43260.3125</v>
+        <v>42834.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>43260.8125</v>
+        <v>42834.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>43261.3125</v>
+        <v>42835.3125</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -11973,453 +12667,453 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43261.8125</v>
+        <v>42835.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43262.3125</v>
+        <v>42836.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>43262.8125</v>
+        <v>42836.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>43263.3125</v>
+        <v>42837.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43263.8125</v>
+        <v>42837.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43264.3125</v>
+        <v>42838.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>43264.8125</v>
+        <v>42838.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>43265.3125</v>
+        <v>42839.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43265.8125</v>
+        <v>42839.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43266.3125</v>
+        <v>42840.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43266.8125</v>
+        <v>42840.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43267.3125</v>
+        <v>42841.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43267.8125</v>
+        <v>42841.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>43268.3125</v>
+        <v>42842.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>43268.8125</v>
+        <v>42842.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43269.3125</v>
+        <v>42843.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>43269.8125</v>
+        <v>42843.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>43270.3125</v>
+        <v>42844.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>43270.8125</v>
+        <v>42844.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>43271.3125</v>
+        <v>42845.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>43271.8125</v>
+        <v>42845.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>43272.3125</v>
+        <v>42846.3125</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>43272.8125</v>
+        <v>42846.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43273.3125</v>
+        <v>42847.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43273.8125</v>
+        <v>42847.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43274.3125</v>
+        <v>42848.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43274.8125</v>
+        <v>42848.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43275.3125</v>
+        <v>42849.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43275.8125</v>
+        <v>42849.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43276.3125</v>
+        <v>42850.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43276.8125</v>
+        <v>42850.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43277.3125</v>
+        <v>42851.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43277.8125</v>
+        <v>42851.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43278.3125</v>
+        <v>42852.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43278.8125</v>
+        <v>42852.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43279.3125</v>
+        <v>42853.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43279.8125</v>
+        <v>42853.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43280.3125</v>
+        <v>42854.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43280.8125</v>
+        <v>42854.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43281.3125</v>
+        <v>42855.3125</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43281.8125</v>
+        <v>42855.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -12451,32 +13145,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>43040.3125</v>
+        <v>43252.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>43040.8125</v>
+        <v>43252.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>43041.3125</v>
+        <v>43253.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -12484,54 +13178,54 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>43041.8125</v>
+        <v>43253.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>43042.3125</v>
+        <v>43254.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>43042.8125</v>
+        <v>43254.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>43043.3125</v>
+        <v>43255.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>43043.8125</v>
+        <v>43255.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -12539,307 +13233,307 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>43044.3125</v>
+        <v>43256.3125</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43044.8125</v>
+        <v>43256.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>43045.3125</v>
+        <v>43257.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>43045.8125</v>
+        <v>43257.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>43046.3125</v>
+        <v>43258.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>43046.8125</v>
+        <v>43258.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>43047.3125</v>
+        <v>43259.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>43047.8125</v>
+        <v>43259.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43048.3125</v>
+        <v>43260.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>43048.8125</v>
+        <v>43260.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>43049.3125</v>
+        <v>43261.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43049.8125</v>
+        <v>43261.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43050.3125</v>
+        <v>43262.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>43050.8125</v>
+        <v>43262.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>43051.3125</v>
+        <v>43263.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43051.8125</v>
+        <v>43263.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43052.3125</v>
+        <v>43264.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>43052.8125</v>
+        <v>43264.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>43053.3125</v>
+        <v>43265.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43053.8125</v>
+        <v>43265.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43054.3125</v>
+        <v>43266.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43054.8125</v>
+        <v>43266.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43055.3125</v>
+        <v>43267.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43055.8125</v>
+        <v>43267.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>43056.3125</v>
+        <v>43268.3125</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>43056.8125</v>
+        <v>43268.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43057.3125</v>
+        <v>43269.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>43057.8125</v>
+        <v>43269.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -12847,266 +13541,266 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>43058.3125</v>
+        <v>43270.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>43058.8125</v>
+        <v>43270.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>43059.3125</v>
+        <v>43271.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>43059.8125</v>
+        <v>43271.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>43060.3125</v>
+        <v>43272.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>43060.8125</v>
+        <v>43272.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>43061.3125</v>
+        <v>43273.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>43061.8125</v>
+        <v>43273.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>43062.3125</v>
+        <v>43274.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>43062.8125</v>
+        <v>43274.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43063.3125</v>
+        <v>43275.3125</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43063.8125</v>
+        <v>43275.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>43064.3125</v>
+        <v>43276.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43064.8125</v>
+        <v>43276.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43065.3125</v>
+        <v>43277.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43065.8125</v>
+        <v>43277.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43066.3125</v>
+        <v>43278.3125</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43066.8125</v>
+        <v>43278.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43067.3125</v>
+        <v>43279.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43067.8125</v>
+        <v>43279.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43068.3125</v>
+        <v>43280.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>43068.8125</v>
+        <v>43280.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>43069.3125</v>
+        <v>43281.3125</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>43069.8125</v>
+        <v>43281.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F59766-736F-48BD-98A6-085D6FD3890F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C2DF5-B80E-451D-9858-DDC73D0A8F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6156" windowWidth="23040" windowHeight="6204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2020" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,7 @@
     <sheet name="May2020" sheetId="5" r:id="rId5"/>
     <sheet name="Jun2020" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -4043,7 +4035,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C61"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4067,10 +4059,10 @@
         <v>43983.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4078,10 +4070,10 @@
         <v>43983.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4089,10 +4081,10 @@
         <v>43984.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4100,10 +4092,10 @@
         <v>43984.8125</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4111,10 +4103,10 @@
         <v>43985.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4122,10 +4114,10 @@
         <v>43985.8125</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4133,10 +4125,10 @@
         <v>43986.3125</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4144,7 +4136,7 @@
         <v>43986.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -4166,10 +4158,10 @@
         <v>43987.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4177,10 +4169,10 @@
         <v>43988.3125</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4188,10 +4180,10 @@
         <v>43988.8125</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4199,10 +4191,10 @@
         <v>43989.3125</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4210,10 +4202,10 @@
         <v>43989.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4221,10 +4213,10 @@
         <v>43990.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4232,10 +4224,10 @@
         <v>43990.8125</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4243,10 +4235,10 @@
         <v>43991.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4254,7 +4246,7 @@
         <v>43991.8125</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -4265,10 +4257,10 @@
         <v>43992.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4276,10 +4268,10 @@
         <v>43992.8125</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4287,10 +4279,10 @@
         <v>43993.3125</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4331,10 +4323,10 @@
         <v>43995.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4342,10 +4334,10 @@
         <v>43995.8125</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4353,10 +4345,10 @@
         <v>43996.3125</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4364,10 +4356,10 @@
         <v>43996.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4375,10 +4367,10 @@
         <v>43997.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4386,10 +4378,10 @@
         <v>43997.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4397,10 +4389,10 @@
         <v>43998.3125</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4408,7 +4400,7 @@
         <v>43998.8125</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -4419,10 +4411,10 @@
         <v>43999.3125</v>
       </c>
       <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4433,7 +4425,7 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4441,7 +4433,7 @@
         <v>44000.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -4452,10 +4444,10 @@
         <v>44000.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4463,10 +4455,10 @@
         <v>44001.3125</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4474,10 +4466,10 @@
         <v>44001.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4485,10 +4477,10 @@
         <v>44002.3125</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4496,10 +4488,10 @@
         <v>44002.8125</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4507,10 +4499,10 @@
         <v>44003.3125</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4518,10 +4510,10 @@
         <v>44003.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4529,10 +4521,10 @@
         <v>44004.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4540,10 +4532,10 @@
         <v>44004.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4551,10 +4543,10 @@
         <v>44005.3125</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4562,10 +4554,10 @@
         <v>44005.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4576,7 +4568,7 @@
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4584,10 +4576,10 @@
         <v>44006.8125</v>
       </c>
       <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
         <v>33</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -4595,10 +4587,10 @@
         <v>44007.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4606,10 +4598,10 @@
         <v>44007.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -4617,10 +4609,10 @@
         <v>44008.3125</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -4628,10 +4620,10 @@
         <v>44008.8125</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -4639,10 +4631,10 @@
         <v>44009.3125</v>
       </c>
       <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
         <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -4650,10 +4642,10 @@
         <v>44009.8125</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -4661,10 +4653,10 @@
         <v>44010.3125</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -4672,10 +4664,10 @@
         <v>44010.8125</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -4683,10 +4675,10 @@
         <v>44011.3125</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -4694,7 +4686,7 @@
         <v>44011.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -4705,10 +4697,10 @@
         <v>44012.3125</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -4716,7 +4708,7 @@
         <v>44012.8125</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
         <v>56</v>
@@ -4724,6 +4716,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C2DF5-B80E-451D-9858-DDC73D0A8F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE30EE14-ABB5-46D8-BCEE-F87B9830328D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6156" windowWidth="23040" windowHeight="6204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2020" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Apr2020" sheetId="4" r:id="rId4"/>
     <sheet name="May2020" sheetId="5" r:id="rId5"/>
     <sheet name="Jun2020" sheetId="6" r:id="rId6"/>
+    <sheet name="Jul2020" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="59">
   <si>
     <t>ts</t>
   </si>
@@ -209,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +224,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,12 +268,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4034,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4044,29 +4058,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>43983.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>43983.8125</v>
       </c>
       <c r="B3" t="s">
@@ -4077,18 +4091,18 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>43984.3125</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>43984.8125</v>
       </c>
       <c r="B5" t="s">
@@ -4099,7 +4113,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>43985.3125</v>
       </c>
       <c r="B6" t="s">
@@ -4110,7 +4124,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>43985.8125</v>
       </c>
       <c r="B7" t="s">
@@ -4121,7 +4135,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>43986.3125</v>
       </c>
       <c r="B8" t="s">
@@ -4132,18 +4146,18 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>43986.8125</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>43987.3125</v>
       </c>
       <c r="B10" t="s">
@@ -4154,18 +4168,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>43987.8125</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>43988.3125</v>
       </c>
       <c r="B12" t="s">
@@ -4176,7 +4190,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>43988.8125</v>
       </c>
       <c r="B13" t="s">
@@ -4187,7 +4201,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>43989.3125</v>
       </c>
       <c r="B14" t="s">
@@ -4198,29 +4212,29 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>43989.8125</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>43990.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>43990.8125</v>
       </c>
       <c r="B17" t="s">
@@ -4231,7 +4245,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>43991.3125</v>
       </c>
       <c r="B18" t="s">
@@ -4242,7 +4256,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>43991.8125</v>
       </c>
       <c r="B19" t="s">
@@ -4252,19 +4266,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>43992.3125</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>43992.8125</v>
       </c>
       <c r="B21" t="s">
@@ -4275,18 +4289,18 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>43993.3125</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>43993.8125</v>
       </c>
       <c r="B23" t="s">
@@ -4297,7 +4311,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>43994.3125</v>
       </c>
       <c r="B24" t="s">
@@ -4308,410 +4322,1121 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>43994.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>43995.3125</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>43995.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>43996.3125</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>43996.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>43997.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>43997.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>43998.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>43998.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>43999.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>43999.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44000.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>43995.8125</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44000.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44001.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44001.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44002.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44002.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44003.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44003.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44004.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44004.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44005.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44005.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44006.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44006.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44007.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44007.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44008.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44008.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44009.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44009.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44010.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44010.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44011.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>43996.3125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44011.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>43996.8125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>43997.3125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>43997.8125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>43998.3125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>43998.8125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>43999.3125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>43999.8125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>44000.3125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>44000.8125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>44001.3125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>44001.8125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>44002.3125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>44002.8125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>44003.3125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>44003.8125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>44004.3125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>44004.8125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>44005.3125</v>
-      </c>
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>44005.8125</v>
-      </c>
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>44006.3125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>44006.8125</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>44007.3125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>44007.8125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>44008.3125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>44008.8125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>44009.3125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>44009.8125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>44010.3125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>44010.8125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>44011.3125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>44011.8125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>44012.3125</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
       </c>
       <c r="C60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44012.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F58220-A126-4398-A463-8EDCD987455B}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44013.3125</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44013.8125</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44014.3125</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44014.8125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44015.3125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44015.8125</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44016.3125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44016.8125</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44017.3125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44017.8125</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44018.3125</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44018.8125</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44019.3125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44019.8125</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44020.3125</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44020.8125</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44021.3125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44021.8125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44022.3125</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44022.8125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44023.3125</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44023.8125</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44024.3125</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44024.8125</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44025.3125</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44025.8125</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44026.3125</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44026.8125</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44027.3125</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44027.8125</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C31" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44028.3125</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44028.8125</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44029.3125</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44029.8125</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44030.3125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44030.8125</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44031.3125</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44031.8125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44032.3125</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44032.8125</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44033.3125</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44033.8125</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44034.3125</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44034.8125</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44035.3125</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44035.8125</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44036.3125</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44036.8125</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44037.3125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44037.8125</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44038.3125</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44038.8125</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44039.3125</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44039.8125</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44040.3125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44040.8125</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44041.3125</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44041.8125</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>44042.3125</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>44012.8125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" t="s">
-        <v>56</v>
+      <c r="A61" s="3">
+        <v>44042.8125</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>44043.3125</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>44043.8125</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE30EE14-ABB5-46D8-BCEE-F87B9830328D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19872AD0-9DBA-450D-8CF8-04E3315D4376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2020" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="May2020" sheetId="5" r:id="rId5"/>
     <sheet name="Jun2020" sheetId="6" r:id="rId6"/>
     <sheet name="Jul2020" sheetId="8" r:id="rId7"/>
+    <sheet name="Aug2020" sheetId="9" r:id="rId8"/>
+    <sheet name="Sep2020" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="59">
   <si>
     <t>ts</t>
   </si>
@@ -4737,7 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F58220-A126-4398-A463-8EDCD987455B}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -5442,4 +5444,1409 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B05F9F-1FE0-4ED8-A75A-399120789F21}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44044.3125</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44044.8125</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44045.3125</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44045.8125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44046.3125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44046.8125</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44047.3125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44047.8125</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44048.3125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44048.8125</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44049.3125</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44049.8125</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44050.3125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44050.8125</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44051.3125</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44051.8125</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44052.3125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44052.8125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44053.3125</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44053.8125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44054.3125</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44054.8125</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44055.3125</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44055.8125</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44056.3125</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44056.8125</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44057.3125</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44057.8125</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44058.3125</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44058.8125</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44059.3125</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44059.8125</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44060.3125</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44060.8125</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44061.3125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44061.8125</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44062.3125</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44062.8125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44063.3125</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44063.8125</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44064.3125</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44064.8125</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44065.3125</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44065.8125</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44066.3125</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44066.8125</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44067.3125</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44067.8125</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44068.3125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44068.8125</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44069.3125</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44069.8125</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44070.3125</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44070.8125</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44071.3125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44071.8125</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44072.3125</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44072.8125</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>44073.3125</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44073.8125</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>44074.3125</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>44074.8125</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E7C21A-CA49-45B5-BAEF-083D0A28FF48}">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44075.3125</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44075.8125</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44076.3125</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44076.8125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44077.3125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44077.8125</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44078.3125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44078.8125</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44079.3125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44079.8125</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44080.3125</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44080.8125</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44081.3125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44081.8125</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44082.3125</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44082.8125</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44083.3125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44083.8125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44084.3125</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44084.8125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44085.3125</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44085.8125</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44086.3125</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44086.8125</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44087.3125</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44087.8125</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44088.3125</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44088.8125</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44089.3125</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44089.8125</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44090.3125</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44090.8125</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44091.3125</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44091.8125</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44092.3125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44092.8125</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44093.3125</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44093.8125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44094.3125</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44094.8125</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44095.3125</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44095.8125</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44096.3125</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44096.8125</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44097.3125</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44097.8125</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44098.3125</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44098.8125</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44099.3125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44099.8125</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44100.3125</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44100.8125</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44101.3125</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44101.8125</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44102.3125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44102.8125</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44103.3125</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44103.8125</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>44104.3125</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44104.8125</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19872AD0-9DBA-450D-8CF8-04E3315D4376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C451C129-BFC7-4A17-B2C6-46F931AB4993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2020" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="Jul2020" sheetId="8" r:id="rId7"/>
     <sheet name="Aug2020" sheetId="9" r:id="rId8"/>
     <sheet name="Sep2020" sheetId="10" r:id="rId9"/>
+    <sheet name="Oct2020" sheetId="11" r:id="rId10"/>
+    <sheet name="Nov2020" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="59">
   <si>
     <t>ts</t>
   </si>
@@ -1288,6 +1290,1413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD74F316-297C-4519-A39F-E4C3AB37B7AF}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44105.3125</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44105.8125</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44106.3125</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44106.8125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44107.3125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44107.8125</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44108.3125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44108.8125</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44109.3125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44109.8125</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44110.3125</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44110.8125</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44111.3125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44111.8125</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44112.3125</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44112.8125</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44113.3125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44113.8125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44114.3125</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44114.8125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44115.3125</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44115.8125</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44116.3125</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44116.8125</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44117.3125</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44117.8125</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44118.3125</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44118.8125</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44119.3125</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44119.8125</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44120.3125</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44120.8125</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44121.3125</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44121.8125</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44122.3125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44122.8125</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44123.3125</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44123.8125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44124.3125</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44124.8125</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44125.3125</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44125.8125</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44126.3125</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44126.8125</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44127.3125</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44127.8125</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44128.3125</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44128.8125</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44129.3125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44129.8125</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44130.3125</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44130.8125</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44131.3125</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44131.8125</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44132.3125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44132.8125</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44133.3125</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44133.8125</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>44134.3125</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44134.8125</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>44135.3125</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>44135.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09C0EA-269C-41E8-B1D5-C48E120E7CB9}">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44136.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44136.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44137.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44137.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44138.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44138.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44139.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44139.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44140.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44140.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44141.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44141.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44142.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44142.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44143.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44143.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44144.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44144.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44145.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44145.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44146.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44146.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44147.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44147.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44148.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44148.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44149.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44149.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44150.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44150.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44151.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44151.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44152.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44152.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44153.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44153.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44154.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44154.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44155.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44155.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44156.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44156.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44157.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44157.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44158.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44158.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44159.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44159.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44160.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44160.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44161.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44161.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44162.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44162.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44163.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44163.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44164.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44164.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>44165.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44165.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C59"/>
@@ -6161,8 +7570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E7C21A-CA49-45B5-BAEF-083D0A28FF48}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6848,5 +8257,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C451C129-BFC7-4A17-B2C6-46F931AB4993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE5FDAA-E630-4D64-B160-5F998EB54E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2020" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Sep2020" sheetId="10" r:id="rId9"/>
     <sheet name="Oct2020" sheetId="11" r:id="rId10"/>
     <sheet name="Nov2020" sheetId="12" r:id="rId11"/>
+    <sheet name="Dec2020" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="59">
   <si>
     <t>ts</t>
   </si>
@@ -1295,7 +1296,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2006,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09C0EA-269C-41E8-B1D5-C48E120E7CB9}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2694,6 +2695,718 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E81958-F9E0-413F-8325-1FC31B321830}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44166.3125</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44166.8125</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44167.3125</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>44167.8125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>44168.3125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>44168.8125</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>44169.3125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>44169.8125</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44170.3125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>44170.8125</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>44171.3125</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>44171.8125</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44172.3125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>44172.8125</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>44173.3125</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>44173.8125</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44174.3125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>44174.8125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44175.3125</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44175.8125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44176.3125</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>44176.8125</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>44177.3125</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>44177.8125</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>44178.3125</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44178.8125</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44179.3125</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>44179.8125</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>44180.3125</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>44180.8125</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>44181.3125</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>44181.8125</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44182.3125</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44182.8125</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44183.3125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44183.8125</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44184.3125</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44184.8125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44185.3125</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44185.8125</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44186.3125</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44186.8125</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44187.3125</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44187.8125</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44188.3125</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44188.8125</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44189.3125</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44189.8125</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44190.3125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44190.8125</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44191.3125</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44191.8125</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44192.3125</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44192.8125</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44193.3125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44193.8125</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44194.3125</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44194.8125</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>44195.3125</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44195.8125</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>44196.3125</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>44196.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -4,13 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jan2021" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb2021" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar2021" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr2021" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May2021" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,8 +21,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,19 +61,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -825,7 +826,7 @@
       <c r="C63" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1701,7 +1702,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2667,7 +2668,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3603,6 +3604,972 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ts</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44317.3125</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44317.8125</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44318.3125</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44318.8125</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44319.3125</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44319.8125</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44320.3125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44320.8125</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44321.3125</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44321.8125</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44322.3125</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44322.8125</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Momay</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44323.3125</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44323.8125</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44324.3125</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44324.8125</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Carlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44325.3125</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44325.8125</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44326.3125</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44326.8125</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44327.3125</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44327.8125</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44328.3125</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Carlo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44328.8125</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44329.3125</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44329.8125</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44330.3125</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44330.8125</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44331.3125</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44331.8125</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44332.3125</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44332.8125</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44333.3125</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44333.8125</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44334.3125</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44334.8125</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44335.3125</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44335.8125</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44336.3125</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44336.8125</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44337.3125</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44337.8125</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Momay</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44338.3125</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44338.8125</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44339.3125</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44339.8125</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44340.3125</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44340.8125</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44341.3125</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44341.8125</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44342.3125</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44342.8125</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44343.3125</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44343.8125</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44344.3125</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44344.8125</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44345.3125</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44345.8125</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44346.3125</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44346.8125</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44347.3125</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44347.8125</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Momay</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -12,6 +12,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar2021" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apr2021" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="May2021" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jun2021" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jul2021" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aug2021" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4572,4 +4575,2872 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ts</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44348.3125</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44348.8125</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44349.3125</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44349.8125</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44350.3125</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44350.8125</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44351.3125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44351.8125</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44352.3125</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44352.8125</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44353.3125</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44353.8125</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44354.3125</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44354.8125</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44355.3125</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44355.8125</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44356.3125</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44356.8125</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44357.3125</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44357.8125</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44358.3125</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44358.8125</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44359.3125</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44359.8125</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44360.3125</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44360.8125</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44361.3125</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44361.8125</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44362.3125</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44362.8125</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44363.3125</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44363.8125</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44364.3125</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44364.8125</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44365.3125</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44365.8125</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44366.3125</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44366.8125</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44367.3125</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44367.8125</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44368.3125</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44368.8125</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44369.3125</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44369.8125</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44370.3125</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44370.8125</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44371.3125</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44371.8125</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44372.3125</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44372.8125</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44373.3125</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>JK</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44373.8125</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44374.3125</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nora</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44374.8125</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44375.3125</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44375.8125</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44376.3125</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44376.8125</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Camille</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44377.3125</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44377.8125</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ts</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44378.3125</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44378.8125</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44379.3125</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44379.8125</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44380.3125</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44380.8125</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44381.3125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44381.8125</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44382.3125</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44382.8125</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44383.3125</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44383.8125</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44384.3125</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44384.8125</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44385.3125</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44385.8125</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44386.3125</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44386.8125</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44387.3125</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44387.8125</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44388.3125</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44388.8125</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44389.3125</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44389.8125</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44390.3125</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44390.8125</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44391.3125</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44391.8125</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44392.3125</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44392.8125</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44393.3125</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44393.8125</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44394.3125</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44394.8125</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44395.3125</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44395.8125</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44396.3125</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44396.8125</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44397.3125</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44397.8125</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44398.3125</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44398.8125</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44399.3125</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44399.8125</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44400.3125</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44400.8125</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44401.3125</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44401.8125</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44402.3125</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44402.8125</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44403.3125</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44403.8125</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44404.3125</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44404.8125</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44405.3125</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44405.8125</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44406.3125</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44406.8125</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44407.3125</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44407.8125</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44408.3125</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44408.8125</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ts</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44409.3125</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44409.8125</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44410.3125</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44410.8125</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44411.3125</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44411.8125</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44412.3125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44412.8125</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44413.3125</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44413.8125</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44414.3125</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44414.8125</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44415.3125</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44415.8125</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44416.3125</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44416.8125</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44417.3125</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Lem</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44417.8125</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44418.3125</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44418.8125</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44419.3125</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44419.8125</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44420.3125</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44420.8125</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44421.3125</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44421.8125</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Milky</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44422.3125</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44422.8125</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44423.3125</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44423.8125</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44424.3125</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44424.8125</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44425.3125</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44425.8125</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sky</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44426.3125</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Brain</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44426.8125</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Anne</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Heinz</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44427.3125</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44427.8125</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44428.3125</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44428.8125</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Anj</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44429.3125</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gene</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44429.8125</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44430.3125</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44430.8125</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Janine</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44431.3125</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44431.8125</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Heinz</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44432.3125</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44432.8125</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Arnel</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44433.3125</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44433.8125</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Rodney</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44434.3125</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44434.8125</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44435.3125</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44435.8125</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Issa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Jes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44436.3125</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44436.8125</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44437.3125</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44437.8125</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44438.3125</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Milky</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44438.8125</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Meryll</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44439.3125</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44439.8125</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2022" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Sep2022" sheetId="9" r:id="rId9"/>
     <sheet name="Oct2022" sheetId="10" r:id="rId10"/>
     <sheet name="Nov2022" sheetId="11" r:id="rId11"/>
+    <sheet name="Dec2022" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="65">
   <si>
     <t>ts</t>
   </si>
@@ -215,17 +216,23 @@
   <si>
     <t>Sander</t>
   </si>
+  <si>
+    <t>Micah</t>
+  </si>
+  <si>
+    <t>Katey</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -250,9 +257,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,22 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,17 +310,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,6 +337,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,32 +365,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,55 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +464,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,19 +536,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,49 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,26 +638,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -690,7 +677,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,10 +696,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,127 +740,127 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,11 +1218,14 @@
   <sheetPr/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2631,8 +2641,8 @@
   <sheetPr/>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3306,6 +3316,716 @@
       </c>
       <c r="C61" t="s">
         <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44896.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44896.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44897.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44897.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44898.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44898.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44899.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44899.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44900.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44900.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44901.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44901.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44902.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44902.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44903.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44903.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44904.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44904.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44905.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44905.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44906.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44906.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44907.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44907.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44908.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44908.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44909.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44909.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44910.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44910.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44911.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>44911.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>44912.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>44912.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>44913.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>44913.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>44914.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>44914.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>44915.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>44915.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>44916.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>44916.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>44917.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>44917.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>44918.3125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>44918.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>44919.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>44919.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>44920.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>44920.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>44921.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>44921.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>44922.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>44922.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>44923.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>44923.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>44924.3125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>44924.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>44925.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>44925.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>44926.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>44926.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/MonitoringShift.xlsx
+++ b/MonitoringShift.xlsx
@@ -20,6 +20,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nov2022" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec2022" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jan2023" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb2023" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar2023" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5168,6 +5170,1848 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ts</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44958.3125</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Phin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44958.8125</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44959.3125</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44959.8125</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rasty</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44960.3125</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44960.8125</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44961.3125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aya</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44961.8125</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44962.3125</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44962.8125</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44963.3125</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Micah</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44963.8125</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44964.3125</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Heinz</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44964.8125</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44965.3125</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44965.8125</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44966.3125</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44966.8125</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44967.3125</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Don</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44967.8125</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44968.3125</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44968.8125</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nichi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44969.3125</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44969.8125</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Phin</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44970.3125</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44970.8125</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44971.3125</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Micah</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44971.8125</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44972.3125</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44972.8125</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44973.3125</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44973.8125</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44974.3125</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Aya</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44974.8125</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44975.3125</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Don</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44975.8125</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Balbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44976.3125</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44976.8125</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44977.3125</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44977.8125</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Balbas</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nichi</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44978.3125</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44978.8125</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44979.3125</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44979.8125</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44980.3125</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44980.8125</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44981.3125</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Aya</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44981.8125</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Heinz</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44982.3125</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44982.8125</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Phin</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rasty</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44983.3125</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44983.8125</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Micah</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44984.3125</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Rasty</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Heinz</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44984.8125</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44985.3125</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44985.8125</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ts</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-MT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IOMP-CT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44986.3125</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rasty</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44986.8125</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44987.3125</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44987.8125</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nichi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44988.3125</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Balbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44988.8125</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Phin</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44989.3125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44989.8125</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44990.3125</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Phin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Kate</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44990.8125</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44991.3125</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44991.8125</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Balbas</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44992.3125</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44992.8125</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44993.3125</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Jhoanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44993.8125</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Don</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44994.3125</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44994.8125</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44995.3125</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44995.8125</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44996.3125</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44996.8125</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44997.3125</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44997.8125</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Edch</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44998.3125</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44998.8125</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Aya</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44999.3125</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44999.8125</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45000.3125</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45000.8125</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Rasty</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45001.3125</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45001.8125</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nichi</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45002.3125</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45002.8125</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Phin</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45003.3125</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kennex</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45003.8125</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Johann</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45004.3125</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45004.8125</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45005.3125</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Aya</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45005.8125</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45006.3125</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tintin</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45006.8125</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Jec</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45007.3125</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45007.8125</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Rasty</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45008.3125</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Julius</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45008.8125</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45009.3125</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Marj</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Nichi</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45009.8125</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45010.3125</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Micah</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Nichole</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45010.8125</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45011.3125</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jacq</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Aya</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45011.8125</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ardeth</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Carla</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45012.3125</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Don</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45012.8125</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45013.3125</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Don</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45013.8125</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Chatty</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Micah</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45014.3125</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Cath</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Karl</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45014.8125</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Tine</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Jaja</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45015.3125</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Reyn</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45015.8125</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45016.3125</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45016.8125</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Balbas</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
